--- a/Registration/test.xlsx
+++ b/Registration/test.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,10 +487,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>840</v>
+        <v>457.296370967742</v>
       </c>
       <c r="C2" t="n">
-        <v>1076</v>
+        <v>1589.211693548387</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -505,10 +505,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11305.2511</v>
+        <v>19874.60685483871</v>
       </c>
       <c r="I2" t="n">
-        <v>8501254.59061921</v>
+        <v>1366050.580732234</v>
       </c>
     </row>
     <row r="3">
@@ -516,28 +516,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>839.9999998849758</v>
+        <v>457.2963709939271</v>
       </c>
       <c r="C3" t="n">
-        <v>1075.999999986815</v>
+        <v>1589.211693559684</v>
       </c>
       <c r="D3" t="n">
-        <v>1.157774623193108e-07</v>
+        <v>2.851816226046921e-08</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.150242496805731e-07</v>
+        <v>2.618514827190666e-08</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.318494469160214e-08</v>
+        <v>1.129706106439698e-08</v>
       </c>
       <c r="G3" t="n">
-        <v>1.157774623193108e-07</v>
+        <v>2.851816226046921e-08</v>
       </c>
       <c r="H3" t="n">
-        <v>13835.696</v>
+        <v>19839.14919354839</v>
       </c>
       <c r="I3" t="n">
-        <v>6439686.498169689</v>
+        <v>1616403.432058527</v>
       </c>
     </row>
     <row r="4">
@@ -545,28 +545,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>841.56911361636</v>
+        <v>457.7077864814549</v>
       </c>
       <c r="C4" t="n">
-        <v>1077.011026369261</v>
+        <v>1589.391165395178</v>
       </c>
       <c r="D4" t="n">
-        <v>1.866625795489878</v>
+        <v>0.4488572921478908</v>
       </c>
       <c r="E4" t="n">
-        <v>1.569113731384277</v>
+        <v>0.4114154875278473</v>
       </c>
       <c r="F4" t="n">
-        <v>1.011026382446289</v>
+        <v>0.1794718354940414</v>
       </c>
       <c r="G4" t="n">
-        <v>1.86662589932239</v>
+        <v>0.4488572636299613</v>
       </c>
       <c r="H4" t="n">
-        <v>10939.3186</v>
+        <v>19927.38709677419</v>
       </c>
       <c r="I4" t="n">
-        <v>2247217954.73373</v>
+        <v>143650.5612491861</v>
       </c>
     </row>
     <row r="5">
@@ -574,28 +574,2841 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>851.0148924631008</v>
+        <v>457.9731958318501</v>
       </c>
       <c r="C5" t="n">
-        <v>1077.371306108164</v>
+        <v>1589.576617260374</v>
       </c>
       <c r="D5" t="n">
-        <v>11.09992506352915</v>
+        <v>0.7689351157579507</v>
       </c>
       <c r="E5" t="n">
-        <v>9.445778846740723</v>
+        <v>0.2654093503952026</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3602797389030457</v>
+        <v>0.185451865196228</v>
       </c>
       <c r="G5" t="n">
-        <v>9.452647222434493</v>
+        <v>0.3237815893190398</v>
       </c>
       <c r="H5" t="n">
-        <v>11324.5648</v>
+        <v>20055.82862903226</v>
       </c>
       <c r="I5" t="n">
-        <v>6439686.498169689</v>
+        <v>729128.6281951541</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>458.4053357053548</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1589.860244353213</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.284687096420239</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.4321398735046387</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.2836270928382874</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.5169034707413983</v>
+      </c>
+      <c r="H6" t="n">
+        <v>19874.72379032258</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3010302.518130324</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>457.9006825495511</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1590.225867767729</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.180568437273662</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.5046531558036804</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.365623414516449</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.623181585820121</v>
+      </c>
+      <c r="H7" t="n">
+        <v>19870.59072580645</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2656730.290080269</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>457.9974980462342</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1589.170766730704</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7023205711075284</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.09681549668312073</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-1.055101037025452</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.059533594903995</v>
+      </c>
+      <c r="H8" t="n">
+        <v>20079.65927419355</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3225401.5279851</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>458.4088850725442</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1589.5116691188</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.152246925024418</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.411387026309967</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.3409023880958557</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.5342786947142989</v>
+      </c>
+      <c r="H9" t="n">
+        <v>19990.44758064516</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1449287.44002767</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>457.9239137280732</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1589.801722575821</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8613618108896601</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.4849713444709778</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.2900534570217133</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.5650913314573447</v>
+      </c>
+      <c r="H10" t="n">
+        <v>20181.70362903226</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2560162.564885726</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>458.1922090161592</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1590.010752041735</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.200425043383989</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.2682952880859375</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.2090294659137726</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.3401112747753494</v>
+      </c>
+      <c r="H11" t="n">
+        <v>20076.41129032258</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1848018.568503528</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>458.0627079714089</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1589.611675490536</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8644408350110403</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.1295010447502136</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.3990765511989594</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.4195624081209522</v>
+      </c>
+      <c r="H12" t="n">
+        <v>19959.8810483871</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1413786.823305347</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>457.4071303714067</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1589.728394840755</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5284390892379975</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.6555776000022888</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.1167193502187729</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.6658869245902442</v>
+      </c>
+      <c r="H13" t="n">
+        <v>20245.44758064516</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2027570.067492352</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>457.7512219358235</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1589.904410962858</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8287018881814268</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.3440915644168854</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.1760161221027374</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.3864979688729882</v>
+      </c>
+      <c r="H14" t="n">
+        <v>19940.28225806452</v>
+      </c>
+      <c r="I14" t="n">
+        <v>6896457.79437007</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>458.1465441990644</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1590.008211810984</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.165004663470318</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.3953222632408142</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.1038008481264114</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.4087227763235148</v>
+      </c>
+      <c r="H15" t="n">
+        <v>20000.09475806452</v>
+      </c>
+      <c r="I15" t="n">
+        <v>628863.2767367332</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>457.878649334982</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1589.597281684079</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.6983740454382488</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.2678948640823364</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.4109301269054413</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.490541769271706</v>
+      </c>
+      <c r="H16" t="n">
+        <v>20179.49193548387</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1483461.957480795</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>458.5417314577847</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1589.889824201264</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.418021132610726</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6630821228027344</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.2925425171852112</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.7247475601488012</v>
+      </c>
+      <c r="H17" t="n">
+        <v>19934.65927419355</v>
+      </c>
+      <c r="I17" t="n">
+        <v>769995.4255988799</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>457.9676848459989</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1590.119406719603</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.128984288791949</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.5740466117858887</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.2295825183391571</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.6182537061998158</v>
+      </c>
+      <c r="H18" t="n">
+        <v>19959.6189516129</v>
+      </c>
+      <c r="I18" t="n">
+        <v>787877.2682214432</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>458.2579935003072</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1589.072398682036</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.9716588675708107</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.2903086543083191</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-1.047008037567139</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.086510444264802</v>
+      </c>
+      <c r="H19" t="n">
+        <v>19996.88709677419</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1256545.515375709</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>458.1125092167407</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1589.53200100819</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.8767431267392235</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.1454842835664749</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.4596023261547089</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.4820788057690048</v>
+      </c>
+      <c r="H20" t="n">
+        <v>20206.47983870968</v>
+      </c>
+      <c r="I20" t="n">
+        <v>42279.37334676341</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>458.4818489808589</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1590.458604921498</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.720507510002873</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.3693397641181946</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.9266039133071899</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.997500212288239</v>
+      </c>
+      <c r="H21" t="n">
+        <v>20415.22379032258</v>
+      </c>
+      <c r="I21" t="n">
+        <v>754118.67606348</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>459.459289695695</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1591.071707894005</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2.852695355209734</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.9774407148361206</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.6131029725074768</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.153813505691821</v>
+      </c>
+      <c r="H22" t="n">
+        <v>20096.18548387097</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2552048.437208941</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>459.2209519255906</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1590.212160398163</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2.169088698235872</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-0.2383377701044083</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.85954749584198</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.8919791422822398</v>
+      </c>
+      <c r="H23" t="n">
+        <v>19895.39314516129</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4254897.674394383</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>458.5959476936608</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1590.024900411167</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.53303785609542</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-0.6250042319297791</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.1872599869966507</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.6524542839618105</v>
+      </c>
+      <c r="H24" t="n">
+        <v>20038.93548387097</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3749759.161637085</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>459.401109527424</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1590.257984732189</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2.350457326971284</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.8051618337631226</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.2330843210220337</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.838220662627149</v>
+      </c>
+      <c r="H25" t="n">
+        <v>19902.40322580645</v>
+      </c>
+      <c r="I25" t="n">
+        <v>725556.8711876469</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>458.9762569177896</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1590.166996677317</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.932516720059792</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-0.4248526096343994</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.09098805487155914</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.4344865545013669</v>
+      </c>
+      <c r="H26" t="n">
+        <v>20144.30241935484</v>
+      </c>
+      <c r="I26" t="n">
+        <v>195198.1688155865</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>459.807742427662</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1590.309056867756</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2.740655553767712</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.8314855098724365</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.1420601904392242</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.8435337876074996</v>
+      </c>
+      <c r="H27" t="n">
+        <v>19882.23185483871</v>
+      </c>
+      <c r="I27" t="n">
+        <v>942253.7597796882</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>459.0075876224786</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1590.107694555916</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.931600436151633</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-0.8001548051834106</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.2013623118400574</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.8251027165678673</v>
+      </c>
+      <c r="H28" t="n">
+        <v>19859.97580645161</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1610179.266559363</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>458.5221575904637</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1589.850853641428</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.382417617429764</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-0.4854300320148468</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.2568409144878387</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.5491899228289649</v>
+      </c>
+      <c r="H29" t="n">
+        <v>19972.78427419355</v>
+      </c>
+      <c r="I29" t="n">
+        <v>310509.6005107675</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>459.0463853288442</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1590.770536442198</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2.343617168321064</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.5242277383804321</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.9196828007698059</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.058598684922316</v>
+      </c>
+      <c r="H30" t="n">
+        <v>19977.09879032258</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2692169.615399392</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>459.2165801782161</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1591.094599981703</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2.68933821759419</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.1701948493719101</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.3240635395050049</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.3660375177345063</v>
+      </c>
+      <c r="H31" t="n">
+        <v>20336.86491935484</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3384947.75924764</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>459.5105046588927</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1590.575768728651</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2.600593989784271</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.293924480676651</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-0.5188312530517578</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.5963031691046897</v>
+      </c>
+      <c r="H32" t="n">
+        <v>20259.94758064516</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1485540.31308986</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>459.9824902374297</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1591.195277412333</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3.339137864223948</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.4719855785369873</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.619508683681488</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.778820515589866</v>
+      </c>
+      <c r="H33" t="n">
+        <v>20043.53830645161</v>
+      </c>
+      <c r="I33" t="n">
+        <v>409398.8891380039</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>459.8660754818469</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1590.373286743559</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2.820049652201468</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-0.1164147555828094</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-0.8219906687736511</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.8301933840186632</v>
+      </c>
+      <c r="H34" t="n">
+        <v>20107.36088709677</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2210688.178621741</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>460.9834780354053</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1591.388465543188</v>
+      </c>
+      <c r="D35" t="n">
+        <v>4.281716343449689</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1.11740255355835</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1.015178799629211</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1.509694161714659</v>
+      </c>
+      <c r="H35" t="n">
+        <v>19838.29233870968</v>
+      </c>
+      <c r="I35" t="n">
+        <v>8229454.685476617</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>460.2701066989451</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1590.779242237009</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3.361593831835742</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-0.7133713364601135</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-0.6092233061790466</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.9381107080055194</v>
+      </c>
+      <c r="H36" t="n">
+        <v>19798.0625</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2213793.933354172</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>459.8572859127074</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1591.295689602293</v>
+      </c>
+      <c r="D37" t="n">
+        <v>3.301715449284576</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-0.4128207862377167</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.5164473652839661</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.6611647923616901</v>
+      </c>
+      <c r="H37" t="n">
+        <v>19657.34677419355</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1514569.62721445</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>459.5360468883067</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1590.124769230284</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2.418647438141676</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-0.3212390244007111</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-1.170920372009277</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1.214186570665425</v>
+      </c>
+      <c r="H38" t="n">
+        <v>20111.32862903226</v>
+      </c>
+      <c r="I38" t="n">
+        <v>569334.6451257819</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>460.2539400119334</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1590.905915995039</v>
+      </c>
+      <c r="D39" t="n">
+        <v>3.408460700946982</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.717893123626709</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.781146764755249</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1.060924504872098</v>
+      </c>
+      <c r="H39" t="n">
+        <v>20094.29637096774</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1370686.083277412</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>460.4971003193408</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1592.041229505934</v>
+      </c>
+      <c r="D40" t="n">
+        <v>4.272112137718058</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.2431603074073792</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1.135313510894775</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1.161061455358274</v>
+      </c>
+      <c r="H40" t="n">
+        <v>19764.85685483871</v>
+      </c>
+      <c r="I40" t="n">
+        <v>4514568.991387115</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>460.4968173872679</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1590.800132413306</v>
+      </c>
+      <c r="D41" t="n">
+        <v>3.572953303898659</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-0.0002829320728778839</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-1.241097092628479</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1.241097124878396</v>
+      </c>
+      <c r="H41" t="n">
+        <v>19988.25403225806</v>
+      </c>
+      <c r="I41" t="n">
+        <v>4339907.216192507</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>460.9704797636717</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1592.327730794348</v>
+      </c>
+      <c r="D42" t="n">
+        <v>4.81754746344496</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.4736623764038086</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1.52759838104248</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1.599347635939138</v>
+      </c>
+      <c r="H42" t="n">
+        <v>19838.72379032258</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2405081.507489014</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>460.5734084617346</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1591.084066291251</v>
+      </c>
+      <c r="D43" t="n">
+        <v>3.774222360334904</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-0.3970713019371033</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-1.243664503097534</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1.305514080769282</v>
+      </c>
+      <c r="H43" t="n">
+        <v>19888.51612903226</v>
+      </c>
+      <c r="I43" t="n">
+        <v>4076602.252422079</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>461.0385837923735</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1591.401894529261</v>
+      </c>
+      <c r="D44" t="n">
+        <v>4.336027809119533</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.4651753306388855</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.3178282380104065</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.563385194260371</v>
+      </c>
+      <c r="H44" t="n">
+        <v>19765.90120967742</v>
+      </c>
+      <c r="I44" t="n">
+        <v>2468339.244824055</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>461.056568435952</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1592.122433801092</v>
+      </c>
+      <c r="D45" t="n">
+        <v>4.755154447402645</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.01798464357852936</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.7205392718315125</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.7207636850286874</v>
+      </c>
+      <c r="H45" t="n">
+        <v>20059.86088709677</v>
+      </c>
+      <c r="I45" t="n">
+        <v>8593802.649905322</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>461.630976132676</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1592.099449525498</v>
+      </c>
+      <c r="D46" t="n">
+        <v>5.208448571236296</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.574407696723938</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-0.02298427559435368</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.5748673577272384</v>
+      </c>
+      <c r="H46" t="n">
+        <v>19923.11088709677</v>
+      </c>
+      <c r="I46" t="n">
+        <v>2841321.091692823</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>462.4948144476861</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1592.37557394328</v>
+      </c>
+      <c r="D47" t="n">
+        <v>6.085552872776714</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.8638383150100708</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.2761244177818298</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.9068965368633805</v>
+      </c>
+      <c r="H47" t="n">
+        <v>19587.3185483871</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1011324.463383606</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>461.7166165035218</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1592.325294296168</v>
+      </c>
+      <c r="D48" t="n">
+        <v>5.406762452074609</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-0.7781979441642761</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-0.0502796471118927</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.7798205455200589</v>
+      </c>
+      <c r="H48" t="n">
+        <v>19818.08669354839</v>
+      </c>
+      <c r="I48" t="n">
+        <v>4748208.696008674</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>462.0239595692605</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1592.149632449173</v>
+      </c>
+      <c r="D49" t="n">
+        <v>5.56610985967374</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.307343065738678</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-0.1756618469953537</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.3540011928616462</v>
+      </c>
+      <c r="H49" t="n">
+        <v>19776.96572580645</v>
+      </c>
+      <c r="I49" t="n">
+        <v>2649818.101081578</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>461.313332728669</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1592.136819381178</v>
+      </c>
+      <c r="D50" t="n">
+        <v>4.969139052834948</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-0.7106268405914307</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-0.01281306799501181</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.7107423452140751</v>
+      </c>
+      <c r="H50" t="n">
+        <v>20002.52419354839</v>
+      </c>
+      <c r="I50" t="n">
+        <v>32516006.59487031</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>462.61694114618</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1592.843297500074</v>
+      </c>
+      <c r="D51" t="n">
+        <v>6.441817622813756</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1.303608417510986</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.7064781188964844</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1.482736065078682</v>
+      </c>
+      <c r="H51" t="n">
+        <v>19783.67943548387</v>
+      </c>
+      <c r="I51" t="n">
+        <v>66606636.17123011</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>462.3150258880108</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1592.923223879099</v>
+      </c>
+      <c r="D52" t="n">
+        <v>6.241983226870682</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-0.3019152581691742</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.07992637902498245</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.3123156242960065</v>
+      </c>
+      <c r="H52" t="n">
+        <v>19870.24193548387</v>
+      </c>
+      <c r="I52" t="n">
+        <v>4022774931468.387</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>462.804740748927</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1593.679217543364</v>
+      </c>
+      <c r="D53" t="n">
+        <v>7.092313324435517</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.4897148609161377</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.755993664264679</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.9007480587880543</v>
+      </c>
+      <c r="H53" t="n">
+        <v>19854.48588709677</v>
+      </c>
+      <c r="I53" t="n">
+        <v>66606636.17123008</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>463.0167545001954</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1593.32291218257</v>
+      </c>
+      <c r="D54" t="n">
+        <v>7.044494759485259</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.2120137512683868</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-0.3563053607940674</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.4146122777457078</v>
+      </c>
+      <c r="H54" t="n">
+        <v>19608.54233870968</v>
+      </c>
+      <c r="I54" t="n">
+        <v>32516006.59487107</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>462.0850945036858</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1592.922733452082</v>
+      </c>
+      <c r="D55" t="n">
+        <v>6.058357060335614</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-0.931659996509552</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-0.4001787304878235</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1.013969114633688</v>
+      </c>
+      <c r="H55" t="n">
+        <v>20049.81451612903</v>
+      </c>
+      <c r="I55" t="n">
+        <v>2649818.101081729</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>462.5333465259522</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1593.728258039713</v>
+      </c>
+      <c r="D56" t="n">
+        <v>6.915581523024611</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.4482520222663879</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.8055245876312256</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.9218458313320955</v>
+      </c>
+      <c r="H56" t="n">
+        <v>19857.14112903226</v>
+      </c>
+      <c r="I56" t="n">
+        <v>4748208.696008758</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>462.8672884028405</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1593.452371027231</v>
+      </c>
+      <c r="D57" t="n">
+        <v>7.00131891490903</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.3339418768882751</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-0.2758870124816895</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.4331637343958238</v>
+      </c>
+      <c r="H57" t="n">
+        <v>19947.08870967742</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1011324.463383411</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>463.9175330918282</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1593.812928106547</v>
+      </c>
+      <c r="D58" t="n">
+        <v>8.062949046883318</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1.050244688987732</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.3605570793151855</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1.110412227144151</v>
+      </c>
+      <c r="H58" t="n">
+        <v>19670.72782258064</v>
+      </c>
+      <c r="I58" t="n">
+        <v>2841321.091693131</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>463.4059088151902</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1593.847856350154</v>
+      </c>
+      <c r="D59" t="n">
+        <v>7.669449669558388</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-0.511624276638031</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.03492824360728264</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.5128151544629684</v>
+      </c>
+      <c r="H59" t="n">
+        <v>19823.05040322581</v>
+      </c>
+      <c r="I59" t="n">
+        <v>8593802.649905717</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>463.2757825922221</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1594.151133127421</v>
+      </c>
+      <c r="D60" t="n">
+        <v>7.755735086366667</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-0.1301262229681015</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.3032767772674561</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.3300146020006967</v>
+      </c>
+      <c r="H60" t="n">
+        <v>19786.69556451613</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2468339.244824195</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>463.5378859411925</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1593.653598017901</v>
+      </c>
+      <c r="D61" t="n">
+        <v>7.660745686948438</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.2621033489704132</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-0.4975351095199585</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.5623516255391668</v>
+      </c>
+      <c r="H61" t="n">
+        <v>19837.46370967742</v>
+      </c>
+      <c r="I61" t="n">
+        <v>4076602.252421892</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>463.7022474180907</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1594.417998261661</v>
+      </c>
+      <c r="D62" t="n">
+        <v>8.25474783773476</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.1643614768981934</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.7644002437591553</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.7818711068630246</v>
+      </c>
+      <c r="H62" t="n">
+        <v>19775.78427419355</v>
+      </c>
+      <c r="I62" t="n">
+        <v>2405081.507488979</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>463.4246850382536</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1593.618958301753</v>
+      </c>
+      <c r="D63" t="n">
+        <v>7.548524091045476</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-0.2775623798370361</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-0.7990399599075317</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.8458757191395371</v>
+      </c>
+      <c r="H63" t="n">
+        <v>20155.41129032258</v>
+      </c>
+      <c r="I63" t="n">
+        <v>4339907.216192407</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>464.3279928933829</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1594.996264524669</v>
+      </c>
+      <c r="D64" t="n">
+        <v>9.105216542443921</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.9033078551292419</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1.377306222915649</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1.647099727648683</v>
+      </c>
+      <c r="H64" t="n">
+        <v>19968.64717741936</v>
+      </c>
+      <c r="I64" t="n">
+        <v>4514568.991387394</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>464.1665766160935</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1595.133995033711</v>
+      </c>
+      <c r="D65" t="n">
+        <v>9.070467492567129</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-0.1614162772893906</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.1377305090427399</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.2121907342348805</v>
+      </c>
+      <c r="H65" t="n">
+        <v>19865.43548387097</v>
+      </c>
+      <c r="I65" t="n">
+        <v>1370686.083277442</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>463.6777396123856</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1594.144365347833</v>
+      </c>
+      <c r="D66" t="n">
+        <v>8.065551243398529</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-0.4888370037078857</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-0.9896296858787537</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1.103779204083219</v>
+      </c>
+      <c r="H66" t="n">
+        <v>19982.65725806452</v>
+      </c>
+      <c r="I66" t="n">
+        <v>569334.6451258867</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>464.2685972373932</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1593.989264838308</v>
+      </c>
+      <c r="D67" t="n">
+        <v>8.452048662040212</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.5908576250076294</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-0.1551005095243454</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.6108755201220359</v>
+      </c>
+      <c r="H67" t="n">
+        <v>19713.58870967742</v>
+      </c>
+      <c r="I67" t="n">
+        <v>1514569.627214294</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>463.5641701143235</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1594.559330038637</v>
+      </c>
+      <c r="D68" t="n">
+        <v>8.239085032559304</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-0.7044271230697632</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.5700652003288269</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.9061963939137525</v>
+      </c>
+      <c r="H68" t="n">
+        <v>19736.35282258064</v>
+      </c>
+      <c r="I68" t="n">
+        <v>2213793.933353952</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>463.4545560177415</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1594.108396463007</v>
+      </c>
+      <c r="D69" t="n">
+        <v>7.867715204815551</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-0.1096140965819359</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-0.450933575630188</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.4640650167811623</v>
+      </c>
+      <c r="H69" t="n">
+        <v>19751.27822580645</v>
+      </c>
+      <c r="I69" t="n">
+        <v>8229454.685476823</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>463.7768369015306</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1593.580646030516</v>
+      </c>
+      <c r="D70" t="n">
+        <v>7.815637178764963</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.3222808837890625</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-0.5277504324913025</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.6183732586800759</v>
+      </c>
+      <c r="H70" t="n">
+        <v>19797.92741935484</v>
+      </c>
+      <c r="I70" t="n">
+        <v>2210688.178621786</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>463.5050844546407</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1593.887595020145</v>
+      </c>
+      <c r="D71" t="n">
+        <v>7.772527113879431</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-0.2717524468898773</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.3069489896297455</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.4099598451377369</v>
+      </c>
+      <c r="H71" t="n">
+        <v>19810.84879032258</v>
+      </c>
+      <c r="I71" t="n">
+        <v>409398.8891379453</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>464.051502167806</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1594.711238942951</v>
+      </c>
+      <c r="D72" t="n">
+        <v>8.710728848779004</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.5464177131652832</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.8236439228057861</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.9884136931648011</v>
+      </c>
+      <c r="H72" t="n">
+        <v>19648.29838709677</v>
+      </c>
+      <c r="I72" t="n">
+        <v>1485540.313090311</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>463.8992871787399</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1594.778743959874</v>
+      </c>
+      <c r="D73" t="n">
+        <v>8.636582239144033</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-0.152214989066124</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.06750501692295074</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.1665122524205594</v>
+      </c>
+      <c r="H73" t="n">
+        <v>19764.8689516129</v>
+      </c>
+      <c r="I73" t="n">
+        <v>3384947.759247727</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>464.586420192942</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1594.82724364838</v>
+      </c>
+      <c r="D74" t="n">
+        <v>9.202131309179086</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.6871330142021179</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.0484996885061264</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.6888425066672927</v>
+      </c>
+      <c r="H74" t="n">
+        <v>19715.44758064516</v>
+      </c>
+      <c r="I74" t="n">
+        <v>2692169.615399606</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>464.1927375938743</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1594.913169838399</v>
+      </c>
+      <c r="D75" t="n">
+        <v>8.948000029481452</v>
+      </c>
+      <c r="E75" t="n">
+        <v>-0.393682599067688</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.08592619001865387</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.4029507400909096</v>
+      </c>
+      <c r="H75" t="n">
+        <v>19889.43548387097</v>
+      </c>
+      <c r="I75" t="n">
+        <v>310509.6005107992</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>464.1183626350015</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1595.361617185086</v>
+      </c>
+      <c r="D76" t="n">
+        <v>9.184831574143896</v>
+      </c>
+      <c r="E76" t="n">
+        <v>-0.0743749588727951</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.4484473466873169</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.4545730494191495</v>
+      </c>
+      <c r="H76" t="n">
+        <v>19774.54032258064</v>
+      </c>
+      <c r="I76" t="n">
+        <v>1610179.266559516</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>464.1337870309129</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1594.586779750794</v>
+      </c>
+      <c r="D77" t="n">
+        <v>8.69723002479631</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.01542439591139555</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-0.7748374342918396</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.7749909428949427</v>
+      </c>
+      <c r="H77" t="n">
+        <v>19997.13306451613</v>
+      </c>
+      <c r="I77" t="n">
+        <v>942253.7597795913</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>465.1521646926179</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1595.457087017507</v>
+      </c>
+      <c r="D78" t="n">
+        <v>10.03585744378238</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1.018377661705017</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.8703072667121887</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1.33959986576284</v>
+      </c>
+      <c r="H78" t="n">
+        <v>19622.69153225806</v>
+      </c>
+      <c r="I78" t="n">
+        <v>195198.1688156381</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>464.1265872666612</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1594.65870461604</v>
+      </c>
+      <c r="D79" t="n">
+        <v>8.736233986172682</v>
+      </c>
+      <c r="E79" t="n">
+        <v>-1.025577425956726</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-0.7983824014663696</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1.299701317843154</v>
+      </c>
+      <c r="H79" t="n">
+        <v>20025.87096774194</v>
+      </c>
+      <c r="I79" t="n">
+        <v>725556.8711877093</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>465.1139593074098</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1595.708749152631</v>
+      </c>
+      <c r="D80" t="n">
+        <v>10.1649603527582</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.9873720407485962</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1.050044536590576</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1.441352516102763</v>
+      </c>
+      <c r="H80" t="n">
+        <v>19825.64314516129</v>
+      </c>
+      <c r="I80" t="n">
+        <v>3749759.161637871</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>465.096970407851</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1595.79450877747</v>
+      </c>
+      <c r="D81" t="n">
+        <v>10.20699798987301</v>
+      </c>
+      <c r="E81" t="n">
+        <v>-0.01698889955878258</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.08575962483882904</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.08742617434564494</v>
+      </c>
+      <c r="H81" t="n">
+        <v>19793.38306451613</v>
+      </c>
+      <c r="I81" t="n">
+        <v>4254897.67439411</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>465.2209724621847</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1595.9547000601</v>
+      </c>
+      <c r="D82" t="n">
+        <v>10.40516437461333</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.1240020543336868</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.1601912826299667</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.2025777789137014</v>
+      </c>
+      <c r="H82" t="n">
+        <v>19618.72782258064</v>
+      </c>
+      <c r="I82" t="n">
+        <v>2552048.437209</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>465.1494719596579</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1596.035315312356</v>
+      </c>
+      <c r="D83" t="n">
+        <v>10.40350946397142</v>
+      </c>
+      <c r="E83" t="n">
+        <v>-0.0715005025267601</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.08061525225639343</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.1077550034009613</v>
+      </c>
+      <c r="H83" t="n">
+        <v>19609.29435483871</v>
+      </c>
+      <c r="I83" t="n">
+        <v>754118.6760635911</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>465.2988002808764</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1594.960596121758</v>
+      </c>
+      <c r="D84" t="n">
+        <v>9.853362660017678</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.1493283212184906</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-1.074719190597534</v>
+      </c>
+      <c r="G84" t="n">
+        <v>1.085043909782711</v>
+      </c>
+      <c r="H84" t="n">
+        <v>19595.37903225806</v>
+      </c>
+      <c r="I84" t="n">
+        <v>42279.37334668011</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>465.5269546719268</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1596.306939877481</v>
+      </c>
+      <c r="D85" t="n">
+        <v>10.86669354413324</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.2281543910503387</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1.346343755722046</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1.365538697630827</v>
+      </c>
+      <c r="H85" t="n">
+        <v>19695.78830645161</v>
+      </c>
+      <c r="I85" t="n">
+        <v>1256545.515375782</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>465.9771376462653</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1595.510233439416</v>
+      </c>
+      <c r="D86" t="n">
+        <v>10.72507878226746</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.4501829743385315</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-0.7967064380645752</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.9150988246292472</v>
+      </c>
+      <c r="H86" t="n">
+        <v>19686.35483870968</v>
+      </c>
+      <c r="I86" t="n">
+        <v>787877.2682215685</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>466.2883884521201</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1595.916120149106</v>
+      </c>
+      <c r="D87" t="n">
+        <v>11.21631465695354</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.3112508058547974</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.405886709690094</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.5114890861477999</v>
+      </c>
+      <c r="H87" t="n">
+        <v>19524.71975806452</v>
+      </c>
+      <c r="I87" t="n">
+        <v>769995.4255987231</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>465.5512269349769</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1596.206450916738</v>
+      </c>
+      <c r="D88" t="n">
+        <v>10.81985571446716</v>
+      </c>
+      <c r="E88" t="n">
+        <v>-0.7371615171432495</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.2903307676315308</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.7922746095833511</v>
+      </c>
+      <c r="H88" t="n">
+        <v>19712.23588709677</v>
+      </c>
+      <c r="I88" t="n">
+        <v>1483461.957480768</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>466.1031906815246</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1595.590668894261</v>
+      </c>
+      <c r="D89" t="n">
+        <v>10.8743459543249</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.551963746547699</v>
+      </c>
+      <c r="F89" t="n">
+        <v>-0.6157820224761963</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.8269531284830157</v>
+      </c>
+      <c r="H89" t="n">
+        <v>19600.71572580645</v>
+      </c>
+      <c r="I89" t="n">
+        <v>628863.2767366673</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>466.656363925524</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1596.719120837659</v>
+      </c>
+      <c r="D90" t="n">
+        <v>11.99878880026787</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.5531732439994812</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1.128451943397522</v>
+      </c>
+      <c r="G90" t="n">
+        <v>1.256743580224126</v>
+      </c>
+      <c r="H90" t="n">
+        <v>19882.80846774194</v>
+      </c>
+      <c r="I90" t="n">
+        <v>6896457.794370008</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>467.2678923221305</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1597.243774689645</v>
+      </c>
+      <c r="D91" t="n">
+        <v>12.8041229914733</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.6115283966064453</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.5246538519859314</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.8057472583010913</v>
+      </c>
+      <c r="H91" t="n">
+        <v>19612.83266129032</v>
+      </c>
+      <c r="I91" t="n">
+        <v>2027570.067492309</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>467.2337711365893</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1596.830439574927</v>
+      </c>
+      <c r="D92" t="n">
+        <v>12.52186939449263</v>
+      </c>
+      <c r="E92" t="n">
+        <v>-0.03412118554115295</v>
+      </c>
+      <c r="F92" t="n">
+        <v>-0.4133351147174835</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.4147410907557256</v>
+      </c>
+      <c r="H92" t="n">
+        <v>19413.62096774194</v>
+      </c>
+      <c r="I92" t="n">
+        <v>1413786.823305376</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>465.6127182753756</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1596.284477837295</v>
+      </c>
+      <c r="D93" t="n">
+        <v>10.91722996636983</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-1.621052861213684</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-0.5459617376327515</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1.710522317249338</v>
+      </c>
+      <c r="H93" t="n">
+        <v>19829.44758064516</v>
+      </c>
+      <c r="I93" t="n">
+        <v>1848018.568503684</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>466.7461766513064</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1596.369231246323</v>
+      </c>
+      <c r="D94" t="n">
+        <v>11.85450013094169</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1.133458375930786</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.08475340902805328</v>
+      </c>
+      <c r="G94" t="n">
+        <v>1.136622642001087</v>
+      </c>
+      <c r="H94" t="n">
+        <v>19804.15927419355</v>
+      </c>
+      <c r="I94" t="n">
+        <v>2560162.564885371</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>467.4673027308658</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1596.957137666554</v>
+      </c>
+      <c r="D95" t="n">
+        <v>12.78435596804783</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.7211260795593262</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.5879064202308655</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.9304067828478437</v>
+      </c>
+      <c r="H95" t="n">
+        <v>19581.76411290323</v>
+      </c>
+      <c r="I95" t="n">
+        <v>1449287.440027413</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>466.8564417870715</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1597.251247309059</v>
+      </c>
+      <c r="D96" t="n">
+        <v>12.49117203233281</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-0.6108609437942505</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.2941096425056458</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.677976086944076</v>
+      </c>
+      <c r="H96" t="n">
+        <v>19682.84274193548</v>
+      </c>
+      <c r="I96" t="n">
+        <v>3225401.527984889</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>467.3239333840087</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1596.38920261702</v>
+      </c>
+      <c r="D97" t="n">
+        <v>12.33161159145181</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.4674915969371796</v>
+      </c>
+      <c r="F97" t="n">
+        <v>-0.8620446920394897</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.980647461772238</v>
+      </c>
+      <c r="H97" t="n">
+        <v>19609.73387096774</v>
+      </c>
+      <c r="I97" t="n">
+        <v>2656730.29008062</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>467.0325941951945</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1596.796772621483</v>
+      </c>
+      <c r="D98" t="n">
+        <v>12.34210141264051</v>
+      </c>
+      <c r="E98" t="n">
+        <v>-0.2913391888141632</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.4075700044631958</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.5009908496939082</v>
+      </c>
+      <c r="H98" t="n">
+        <v>19654.95362903226</v>
+      </c>
+      <c r="I98" t="n">
+        <v>3010302.518130773</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>467.0751755559817</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1597.517072997898</v>
+      </c>
+      <c r="D99" t="n">
+        <v>12.82982256211437</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.04258136078715324</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.7203003764152527</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.7215579010380528</v>
+      </c>
+      <c r="H99" t="n">
+        <v>19535.38911290323</v>
+      </c>
+      <c r="I99" t="n">
+        <v>729128.6281952134</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>466.8549122387543</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1596.990953229279</v>
+      </c>
+      <c r="D100" t="n">
+        <v>12.32406557968559</v>
+      </c>
+      <c r="E100" t="n">
+        <v>-0.2202633172273636</v>
+      </c>
+      <c r="F100" t="n">
+        <v>-0.5261197686195374</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.5703664960779847</v>
+      </c>
+      <c r="H100" t="n">
+        <v>19507.64516129032</v>
+      </c>
+      <c r="I100" t="n">
+        <v>143650.5612491035</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>467.5862620050087</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1597.1946675255</v>
+      </c>
+      <c r="D101" t="n">
+        <v>13.02343008113035</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.731349766254425</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.2037142962217331</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.7591916721655462</v>
+      </c>
+      <c r="H101" t="n">
+        <v>19366.4375</v>
+      </c>
+      <c r="I101" t="n">
+        <v>1616403.432058596</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>467.4849081659689</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1596.715780563563</v>
+      </c>
+      <c r="D102" t="n">
+        <v>12.65375881590101</v>
+      </c>
+      <c r="E102" t="n">
+        <v>-0.1013538390398026</v>
+      </c>
+      <c r="F102" t="n">
+        <v>-0.4788869619369507</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.4894949672890506</v>
+      </c>
+      <c r="H102" t="n">
+        <v>19417.58266129032</v>
+      </c>
+      <c r="I102" t="n">
+        <v>1366050.580732052</v>
       </c>
     </row>
   </sheetData>
@@ -609,7 +3422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -669,10 +3482,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>350</v>
+        <v>629.2369668246446</v>
       </c>
       <c r="C2" t="n">
-        <v>780</v>
+        <v>1378.473933649289</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -687,10 +3500,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>7297.5835</v>
+        <v>23612.83412322275</v>
       </c>
       <c r="I2" t="n">
-        <v>3650466.109532491</v>
+        <v>2033966.723492702</v>
       </c>
     </row>
     <row r="3">
@@ -698,28 +3511,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>350.0000001012212</v>
+        <v>629.2369668166083</v>
       </c>
       <c r="C3" t="n">
-        <v>780.000000005113</v>
+        <v>1378.47393364663</v>
       </c>
       <c r="D3" t="n">
-        <v>1.013502417912141e-07</v>
+        <v>8.464669024733781e-09</v>
       </c>
       <c r="E3" t="n">
-        <v>1.012211896522786e-07</v>
+        <v>-8.036295184865594e-09</v>
       </c>
       <c r="F3" t="n">
-        <v>5.112951839691959e-09</v>
+        <v>-2.658680386957712e-09</v>
       </c>
       <c r="G3" t="n">
-        <v>1.013502417912141e-07</v>
+        <v>8.464669024733781e-09</v>
       </c>
       <c r="H3" t="n">
-        <v>6704.5849</v>
+        <v>24027.99052132701</v>
       </c>
       <c r="I3" t="n">
-        <v>1753330.796805329</v>
+        <v>2162122.545906208</v>
       </c>
     </row>
     <row r="4">
@@ -727,28 +3540,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>350.050755683971</v>
+        <v>629.0732591132563</v>
       </c>
       <c r="C4" t="n">
-        <v>779.9834927893151</v>
+        <v>1378.301314154815</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0533725346968336</v>
+        <v>0.2379027209607526</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0507555827498436</v>
+        <v>-0.1637077033519745</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.01650721579790115</v>
+        <v>-0.172619491815567</v>
       </c>
       <c r="G4" t="n">
-        <v>0.05337244001987073</v>
+        <v>0.2379027135016385</v>
       </c>
       <c r="H4" t="n">
-        <v>8523.257799999999</v>
+        <v>23721.71563981043</v>
       </c>
       <c r="I4" t="n">
-        <v>883936124.948607</v>
+        <v>1949535.790364859</v>
       </c>
     </row>
     <row r="5">
@@ -756,28 +3569,2841 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>349.9038132174736</v>
+        <v>628.8029068092745</v>
       </c>
       <c r="C5" t="n">
-        <v>781.0600094175804</v>
+        <v>1378.063770527195</v>
       </c>
       <c r="D5" t="n">
-        <v>1.064364534589529</v>
+        <v>0.5971950130978477</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.1469424664974213</v>
+        <v>-0.270352303981781</v>
       </c>
       <c r="F5" t="n">
-        <v>1.076516628265381</v>
+        <v>-0.2375436276197433</v>
       </c>
       <c r="G5" t="n">
-        <v>1.086499028712042</v>
+        <v>0.3598851807049084</v>
       </c>
       <c r="H5" t="n">
-        <v>7205.6371</v>
+        <v>23731.72748815166</v>
       </c>
       <c r="I5" t="n">
-        <v>1753330.796805329</v>
+        <v>1415826.966596576</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>629.5295935849589</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1377.886657381605</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6561431516343695</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7266867756843567</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.1771131455898285</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.7479590472046249</v>
+      </c>
+      <c r="H6" t="n">
+        <v>23318.06398104265</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1216659.859942755</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>629.2029255608958</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1378.711621070456</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2401127189851394</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.3266680240631104</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.8249636888504028</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.8872863606902571</v>
+      </c>
+      <c r="H7" t="n">
+        <v>23591.23222748815</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7915028.754835604</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>628.8193863610667</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1378.532561117958</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4216759699632945</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.3835391998291016</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.1790599524974823</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.4232786132016926</v>
+      </c>
+      <c r="H8" t="n">
+        <v>23706.47393364929</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2443848.564719118</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>629.9210660437983</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1378.535759819847</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6868873393887301</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.101679682731628</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.00319870188832283</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.101684326400912</v>
+      </c>
+      <c r="H9" t="n">
+        <v>23863.17772511848</v>
+      </c>
+      <c r="I9" t="n">
+        <v>573629.0763411346</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>630.5237240175646</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1378.746073482733</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.315220195434376</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6026579737663269</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.2103136628866196</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.6383012377717291</v>
+      </c>
+      <c r="H10" t="n">
+        <v>24058.45023696683</v>
+      </c>
+      <c r="I10" t="n">
+        <v>569790.7323210259</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>630.2051941136759</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1379.097361473542</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.151575588173541</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.3185299038887024</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.3512879908084869</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.4741988529695212</v>
+      </c>
+      <c r="H11" t="n">
+        <v>23656.98815165877</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1642196.964595968</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>629.690374849264</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1378.250526992779</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.50545956412184</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.5148192644119263</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.8468344807624817</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.9910436482909816</v>
+      </c>
+      <c r="H12" t="n">
+        <v>23949.25829383886</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2860033.061149222</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>630.5712230185908</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1378.674622474413</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.349264835239374</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8808481693267822</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.42409548163414</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.9776249152659914</v>
+      </c>
+      <c r="H13" t="n">
+        <v>24200.71090047393</v>
+      </c>
+      <c r="I13" t="n">
+        <v>20150876.98303153</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>630.5998667831462</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1379.209466276865</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.548710606638012</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.02864376455545425</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.5348438024520874</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.5356102671432987</v>
+      </c>
+      <c r="H14" t="n">
+        <v>23685.43838862559</v>
+      </c>
+      <c r="I14" t="n">
+        <v>6389402.771698698</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>630.4108225311082</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1378.640253959399</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.185579885605445</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.189044252038002</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.5692123174667358</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.5997836206370258</v>
+      </c>
+      <c r="H15" t="n">
+        <v>23473.63507109005</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2874138.473465013</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>630.3311735893529</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1379.04328465293</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.23347031147088</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.0796489417552948</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.4030306935310364</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.4108256246278298</v>
+      </c>
+      <c r="H16" t="n">
+        <v>23752.75355450237</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3750142.205848597</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>630.5629118884843</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1378.66550972889</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.339713292684743</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.2317382991313934</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.3777749240398407</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.4431890482825795</v>
+      </c>
+      <c r="H17" t="n">
+        <v>23752.14454976303</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1317016.381729559</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>630.8859915937227</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1379.17433240841</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.791602944519362</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.3230797052383423</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.5088226795196533</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.6027279777233292</v>
+      </c>
+      <c r="H18" t="n">
+        <v>23805.68720379147</v>
+      </c>
+      <c r="I18" t="n">
+        <v>687181.1833666569</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>630.9929905663174</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1378.699106482964</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.770401701971565</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.106998972594738</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.4752259254455566</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.487122633791446</v>
+      </c>
+      <c r="H19" t="n">
+        <v>23567.87203791469</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2853819.59983333</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>631.1860917637986</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1379.219356147747</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2.086802034127788</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.1931011974811554</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.5202496647834778</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.5549304336364849</v>
+      </c>
+      <c r="H20" t="n">
+        <v>23483.42654028436</v>
+      </c>
+      <c r="I20" t="n">
+        <v>812047.4602156673</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>630.581092758004</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1378.840601859789</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.393240862636768</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0.6049990057945251</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.3787542879581451</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.7137777018505449</v>
+      </c>
+      <c r="H21" t="n">
+        <v>23824.70379146919</v>
+      </c>
+      <c r="I21" t="n">
+        <v>4662623.134052343</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>631.3540430496377</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1379.712643681269</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2.452838006424132</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.772950291633606</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.8720418214797974</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.165293564620641</v>
+      </c>
+      <c r="H22" t="n">
+        <v>23748.65876777251</v>
+      </c>
+      <c r="I22" t="n">
+        <v>5798271.432077038</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>631.6699289808911</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1379.724189842295</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2.735405893441923</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.3158859312534332</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.01154616102576256</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.316096876603173</v>
+      </c>
+      <c r="H23" t="n">
+        <v>24192.17061611374</v>
+      </c>
+      <c r="I23" t="n">
+        <v>628371.3873648164</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>631.9315443168324</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1379.73916535842</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2.976837103234987</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.2616153359413147</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.01497551612555981</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.2620436034001095</v>
+      </c>
+      <c r="H24" t="n">
+        <v>23489</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1995555.355408681</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>631.9042060914379</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1379.754100702878</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2.958545756181361</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-0.02733822539448738</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.01493534445762634</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0311519354420836</v>
+      </c>
+      <c r="H25" t="n">
+        <v>23386.88862559242</v>
+      </c>
+      <c r="I25" t="n">
+        <v>6956759.190605409</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>631.8690576161188</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1379.79334134626</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2.944272169041013</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-0.03514847531914711</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.03924064338207245</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.05268057906192452</v>
+      </c>
+      <c r="H26" t="n">
+        <v>23494.07819905213</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2007456.640216375</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>631.7840967680257</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1379.692302636977</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2.823525090844601</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-0.08496084809303284</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.1010387092828751</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.1320119937060142</v>
+      </c>
+      <c r="H27" t="n">
+        <v>23227.53080568721</v>
+      </c>
+      <c r="I27" t="n">
+        <v>10631656.99381505</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>631.9235159809631</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1379.711988639262</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2.95809508425798</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.139419212937355</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.01968600228428841</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.1408021861407292</v>
+      </c>
+      <c r="H28" t="n">
+        <v>23407.52132701422</v>
+      </c>
+      <c r="I28" t="n">
+        <v>11108792.16946143</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>632.0042740012449</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1379.702970640909</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3.027956561186643</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.08075802028179169</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.009017998352646828</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.08125996636796387</v>
+      </c>
+      <c r="H29" t="n">
+        <v>23206.12796208531</v>
+      </c>
+      <c r="I29" t="n">
+        <v>6864914.546569678</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>631.8394331390899</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1380.084461199295</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3.060495042823911</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-0.1648408621549606</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.381490558385849</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.4155809860587195</v>
+      </c>
+      <c r="H30" t="n">
+        <v>23323.84834123223</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3936500.130154628</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>632.2936753387493</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1379.244422661316</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3.152319821631936</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.4542421996593475</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.840038537979126</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.9549872885235018</v>
+      </c>
+      <c r="H31" t="n">
+        <v>23503.72748815166</v>
+      </c>
+      <c r="I31" t="n">
+        <v>12218099.29689757</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>632.347220180456</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1379.566816644918</v>
+      </c>
+      <c r="D32" t="n">
+        <v>3.296675473787391</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.05354484170675278</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.3223939836025238</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.3268102365846358</v>
+      </c>
+      <c r="H32" t="n">
+        <v>23232.09004739337</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1230106.180279945</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>632.5638628880423</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1379.968553142797</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3.647207815168402</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.2166427075862885</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.4017364978790283</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.4564277341249375</v>
+      </c>
+      <c r="H33" t="n">
+        <v>23039.49763033175</v>
+      </c>
+      <c r="I33" t="n">
+        <v>11629877.99638943</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>632.4311168025177</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1380.344950633299</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3.701796676696182</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-0.132746085524559</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.3763974905014038</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.3991197741002667</v>
+      </c>
+      <c r="H34" t="n">
+        <v>22973.62796208531</v>
+      </c>
+      <c r="I34" t="n">
+        <v>10450776.07609503</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>632.7294247875851</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1379.734386222612</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3.712950755464333</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.2983079850673676</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-0.6105644106864929</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.6795414288708946</v>
+      </c>
+      <c r="H35" t="n">
+        <v>22894.22274881517</v>
+      </c>
+      <c r="I35" t="n">
+        <v>2382446.863947165</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>632.520615486328</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1380.091349469673</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3.660380099033802</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-0.2088093012571335</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.3569632470607758</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.4135505822068986</v>
+      </c>
+      <c r="H36" t="n">
+        <v>23020.72037914692</v>
+      </c>
+      <c r="I36" t="n">
+        <v>5691193.236719791</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>632.8808061758917</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1379.545438872825</v>
+      </c>
+      <c r="D37" t="n">
+        <v>3.798116462374815</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.3601906895637512</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-0.5459105968475342</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.6540303606093846</v>
+      </c>
+      <c r="H37" t="n">
+        <v>23035.48341232228</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2955979.206420121</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>633.1471882740897</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1379.912693219434</v>
+      </c>
+      <c r="D38" t="n">
+        <v>4.166516636758471</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.266382098197937</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.3672543466091156</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.4536906185316419</v>
+      </c>
+      <c r="H38" t="n">
+        <v>22836.13507109005</v>
+      </c>
+      <c r="I38" t="n">
+        <v>10913572.59633546</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>632.9048258791607</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1380.596985357057</v>
+      </c>
+      <c r="D39" t="n">
+        <v>4.237987564593992</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-0.2423623949289322</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.6842921376228333</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.7259443918704203</v>
+      </c>
+      <c r="H39" t="n">
+        <v>23859.21327014218</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1985980.529496124</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>634.3839472065609</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1380.483711363923</v>
+      </c>
+      <c r="D40" t="n">
+        <v>5.525451430794583</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1.479121327400208</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-0.1132739931344986</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1.483452358079216</v>
+      </c>
+      <c r="H40" t="n">
+        <v>23218.34360189574</v>
+      </c>
+      <c r="I40" t="n">
+        <v>11731726.21675941</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>633.510114205901</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1380.249187665235</v>
+      </c>
+      <c r="D41" t="n">
+        <v>4.627236255376559</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-0.8738330006599426</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-0.2345236986875534</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.9047571377383268</v>
+      </c>
+      <c r="H41" t="n">
+        <v>23126.74170616114</v>
+      </c>
+      <c r="I41" t="n">
+        <v>38700984.31854775</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>633.5995413566869</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1380.178890796553</v>
+      </c>
+      <c r="D42" t="n">
+        <v>4.683901730569468</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.089427150785923</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-0.07029686868190765</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.1137491320589726</v>
+      </c>
+      <c r="H42" t="n">
+        <v>23346.90521327014</v>
+      </c>
+      <c r="I42" t="n">
+        <v>7180736.446584336</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>633.9019927884382</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1379.97716361488</v>
+      </c>
+      <c r="D43" t="n">
+        <v>4.901241431751698</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.3024514317512512</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-0.2017271816730499</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.3635529182858164</v>
+      </c>
+      <c r="H43" t="n">
+        <v>23503.66587677725</v>
+      </c>
+      <c r="I43" t="n">
+        <v>3095977.001784624</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>634.0057817007345</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1380.727720083844</v>
+      </c>
+      <c r="D44" t="n">
+        <v>5.274575681038164</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.1037889122962952</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.750556468963623</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.7576985887665293</v>
+      </c>
+      <c r="H44" t="n">
+        <v>23385.60663507109</v>
+      </c>
+      <c r="I44" t="n">
+        <v>3139346.091322629</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>633.7446053231996</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1380.681505283516</v>
+      </c>
+      <c r="D45" t="n">
+        <v>5.019180944526492</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-0.2611763775348663</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-0.04621480032801628</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.2652336855521814</v>
+      </c>
+      <c r="H45" t="n">
+        <v>23077.52606635071</v>
+      </c>
+      <c r="I45" t="n">
+        <v>8224909.573288582</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>633.6796989868325</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1380.353427549999</v>
+      </c>
+      <c r="D46" t="n">
+        <v>4.82393681423637</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-0.06490633636713028</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-0.3280777335166931</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.33443658850379</v>
+      </c>
+      <c r="H46" t="n">
+        <v>23220.9028436019</v>
+      </c>
+      <c r="I46" t="n">
+        <v>4725271.595348426</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>634.0051042268914</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1380.045161148708</v>
+      </c>
+      <c r="D47" t="n">
+        <v>5.020347611633652</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.3254052400588989</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-0.3082664012908936</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.4482373750844834</v>
+      </c>
+      <c r="H47" t="n">
+        <v>23558.5</v>
+      </c>
+      <c r="I47" t="n">
+        <v>5778256.979342522</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>633.919248415057</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1380.199330693286</v>
+      </c>
+      <c r="D48" t="n">
+        <v>4.990065716135219</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-0.08585581183433533</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.1541695445775986</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.1764637892061625</v>
+      </c>
+      <c r="H48" t="n">
+        <v>23398.39336492891</v>
+      </c>
+      <c r="I48" t="n">
+        <v>393680.1141509169</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>634.8142012487095</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1380.282417176466</v>
+      </c>
+      <c r="D49" t="n">
+        <v>5.863118324667058</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.8949528336524963</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.08308648318052292</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.8988013897129554</v>
+      </c>
+      <c r="H49" t="n">
+        <v>23251.37677725119</v>
+      </c>
+      <c r="I49" t="n">
+        <v>23653028.66911265</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>634.6246928553027</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1380.284398241144</v>
+      </c>
+      <c r="D50" t="n">
+        <v>5.683781647793097</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-0.189508393406868</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.001981064677238464</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.1895187478560041</v>
+      </c>
+      <c r="H50" t="n">
+        <v>23216.79146919431</v>
+      </c>
+      <c r="I50" t="n">
+        <v>190891927.4131303</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>634.1549088637274</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1380.271913506266</v>
+      </c>
+      <c r="D51" t="n">
+        <v>5.236304561985653</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-0.4697839915752411</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-0.01248473487794399</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.4699498562031259</v>
+      </c>
+      <c r="H51" t="n">
+        <v>23384.40995260663</v>
+      </c>
+      <c r="I51" t="n">
+        <v>151210978.6313877</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>634.3903287182492</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1380.483289204713</v>
+      </c>
+      <c r="D52" t="n">
+        <v>5.531242948431063</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.2354198545217514</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.2113756984472275</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.3163893073368565</v>
+      </c>
+      <c r="H52" t="n">
+        <v>23601.76777251185</v>
+      </c>
+      <c r="I52" t="n">
+        <v>5540996741954.025</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>634.8346931169671</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1380.72366675007</v>
+      </c>
+      <c r="D53" t="n">
+        <v>6.032896374752838</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.4443643987178802</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.2403775453567505</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.5052138984228758</v>
+      </c>
+      <c r="H53" t="n">
+        <v>23546.77488151659</v>
+      </c>
+      <c r="I53" t="n">
+        <v>151210978.6313888</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>635.3377211521309</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1380.979513280269</v>
+      </c>
+      <c r="D54" t="n">
+        <v>6.595235602427201</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.5030280351638794</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.2558465301990509</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.5643533035038663</v>
+      </c>
+      <c r="H54" t="n">
+        <v>23287.0971563981</v>
+      </c>
+      <c r="I54" t="n">
+        <v>190891927.4131304</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>634.9503998885792</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1381.256528608676</v>
+      </c>
+      <c r="D55" t="n">
+        <v>6.355009998738542</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-0.387321263551712</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.2770153284072876</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.4761882541305404</v>
+      </c>
+      <c r="H55" t="n">
+        <v>23711.12085308057</v>
+      </c>
+      <c r="I55" t="n">
+        <v>23653028.66911218</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>635.496326042239</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1380.526481680747</v>
+      </c>
+      <c r="D56" t="n">
+        <v>6.587300754962285</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.5459261536598206</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-0.7300469279289246</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.9115941433709775</v>
+      </c>
+      <c r="H56" t="n">
+        <v>23462.41232227488</v>
+      </c>
+      <c r="I56" t="n">
+        <v>393680.114150809</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>634.756009114806</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1380.720709927555</v>
+      </c>
+      <c r="D57" t="n">
+        <v>5.958844807944688</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-0.7403169274330139</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.1942282468080521</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.7653716514883393</v>
+      </c>
+      <c r="H57" t="n">
+        <v>23240.51184834123</v>
+      </c>
+      <c r="I57" t="n">
+        <v>5778256.979341482</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>635.2894364724797</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1380.901243366476</v>
+      </c>
+      <c r="D58" t="n">
+        <v>6.521059829591766</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.533427357673645</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.1805334389209747</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.5631492417497516</v>
+      </c>
+      <c r="H58" t="n">
+        <v>22963.06161137441</v>
+      </c>
+      <c r="I58" t="n">
+        <v>4725271.595348236</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>634.6905167232197</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1381.14758227038</v>
+      </c>
+      <c r="D59" t="n">
+        <v>6.073681210378962</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-0.5989197492599487</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.2463389039039612</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.6476015145366825</v>
+      </c>
+      <c r="H59" t="n">
+        <v>23682.34123222749</v>
+      </c>
+      <c r="I59" t="n">
+        <v>8224909.573288336</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>635.9347543845814</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1380.80270043778</v>
+      </c>
+      <c r="D60" t="n">
+        <v>7.091086866850861</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1.244237661361694</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-0.3448818325996399</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1.291150973514757</v>
+      </c>
+      <c r="H60" t="n">
+        <v>23503.79620853081</v>
+      </c>
+      <c r="I60" t="n">
+        <v>3139346.091322678</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>636.1334776262682</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1381.371472038504</v>
+      </c>
+      <c r="D61" t="n">
+        <v>7.480480596451271</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.198723241686821</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.5687716007232666</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.6024882244291797</v>
+      </c>
+      <c r="H61" t="n">
+        <v>23213.0663507109</v>
+      </c>
+      <c r="I61" t="n">
+        <v>3095977.001784795</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>634.8929941038531</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1380.824457563635</v>
+      </c>
+      <c r="D62" t="n">
+        <v>6.124998551433475</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-1.240483522415161</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-0.5470144748687744</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1.355737513348173</v>
+      </c>
+      <c r="H62" t="n">
+        <v>23290.70616113744</v>
+      </c>
+      <c r="I62" t="n">
+        <v>7180736.446584278</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>635.9591177086276</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1381.329221166845</v>
+      </c>
+      <c r="D63" t="n">
+        <v>7.303422438483588</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1.066123604774475</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.5047636032104492</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1.179578668755635</v>
+      </c>
+      <c r="H63" t="n">
+        <v>23157.66113744076</v>
+      </c>
+      <c r="I63" t="n">
+        <v>38700984.31854676</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>635.5624226908129</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1380.687954820868</v>
+      </c>
+      <c r="D64" t="n">
+        <v>6.701737212323465</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-0.3966950178146362</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-0.6412663459777832</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.7540487143697365</v>
+      </c>
+      <c r="H64" t="n">
+        <v>23449.61137440758</v>
+      </c>
+      <c r="I64" t="n">
+        <v>11731726.21675897</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>635.2929031233233</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1380.936537049886</v>
+      </c>
+      <c r="D65" t="n">
+        <v>6.537490341276591</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-0.269519567489624</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.2485822290182114</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.3666523173845441</v>
+      </c>
+      <c r="H65" t="n">
+        <v>23392.10900473934</v>
+      </c>
+      <c r="I65" t="n">
+        <v>1985980.529496142</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>635.8426799158495</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1381.776672624227</v>
+      </c>
+      <c r="D66" t="n">
+        <v>7.385359177446125</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.5497767925262451</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.8401355743408203</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1.00403301981231</v>
+      </c>
+      <c r="H66" t="n">
+        <v>23430.90758293839</v>
+      </c>
+      <c r="I66" t="n">
+        <v>10913572.59633643</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>636.2739111165446</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1381.416662149306</v>
+      </c>
+      <c r="D67" t="n">
+        <v>7.627465895834443</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.4312312006950378</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-0.3600104749202728</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.5617542972734649</v>
+      </c>
+      <c r="H67" t="n">
+        <v>23302.75829383886</v>
+      </c>
+      <c r="I67" t="n">
+        <v>2955979.206419749</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>635.9378921965998</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1381.184483714577</v>
+      </c>
+      <c r="D68" t="n">
+        <v>7.228380350876967</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-0.3360189199447632</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-0.2321784347295761</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.4084305817569507</v>
+      </c>
+      <c r="H68" t="n">
+        <v>23244.22037914692</v>
+      </c>
+      <c r="I68" t="n">
+        <v>5691193.23671935</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>636.2131689767283</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1380.860128410336</v>
+      </c>
+      <c r="D69" t="n">
+        <v>7.373013081799259</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.275276780128479</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-0.3243553042411804</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.4254217543418433</v>
+      </c>
+      <c r="H69" t="n">
+        <v>23051.35781990521</v>
+      </c>
+      <c r="I69" t="n">
+        <v>2382446.863947104</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>635.822159944002</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1381.636547871109</v>
+      </c>
+      <c r="D70" t="n">
+        <v>7.305265028408623</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-0.3910090327262878</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.776419460773468</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.8693188383678971</v>
+      </c>
+      <c r="H70" t="n">
+        <v>23535.48341232228</v>
+      </c>
+      <c r="I70" t="n">
+        <v>10450776.0760957</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>637.0525785068911</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1381.622353658255</v>
+      </c>
+      <c r="D71" t="n">
+        <v>8.425932264178602</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1.230418562889099</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-0.01419421285390854</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1.230500432986766</v>
+      </c>
+      <c r="H71" t="n">
+        <v>22863.94786729858</v>
+      </c>
+      <c r="I71" t="n">
+        <v>11629877.99638924</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>635.5926827768725</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1381.292718663987</v>
+      </c>
+      <c r="D72" t="n">
+        <v>6.952745804679477</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-1.459895730018616</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-0.3296349942684174</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1.49664784500995</v>
+      </c>
+      <c r="H72" t="n">
+        <v>23084.73933649289</v>
+      </c>
+      <c r="I72" t="n">
+        <v>1230106.180280063</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>636.730760751192</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1381.155704021629</v>
+      </c>
+      <c r="D73" t="n">
+        <v>7.959198435993263</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1.138077974319458</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-0.1370146423578262</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1.146295986144732</v>
+      </c>
+      <c r="H73" t="n">
+        <v>22830.45734597156</v>
+      </c>
+      <c r="I73" t="n">
+        <v>12218099.29689729</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>636.6161766777676</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1381.018851250585</v>
+      </c>
+      <c r="D74" t="n">
+        <v>7.805725056252888</v>
+      </c>
+      <c r="E74" t="n">
+        <v>-0.1145840734243393</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-0.1368527710437775</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.1784886293993961</v>
+      </c>
+      <c r="H74" t="n">
+        <v>22811.17772511848</v>
+      </c>
+      <c r="I74" t="n">
+        <v>3936500.130155115</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>636.9717747102421</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1381.044286742982</v>
+      </c>
+      <c r="D75" t="n">
+        <v>8.150703531190166</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.3555980324745178</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.02543549239635468</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.3565065567043519</v>
+      </c>
+      <c r="H75" t="n">
+        <v>23075.4028436019</v>
+      </c>
+      <c r="I75" t="n">
+        <v>6864914.546570169</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>637.1720463464898</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1381.00390002149</v>
+      </c>
+      <c r="D76" t="n">
+        <v>8.328638355846188</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.2002716362476349</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-0.04038672149181366</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.2043032441205041</v>
+      </c>
+      <c r="H76" t="n">
+        <v>23178.39336492891</v>
+      </c>
+      <c r="I76" t="n">
+        <v>11108792.16946131</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>636.4386876652878</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1381.042801376607</v>
+      </c>
+      <c r="D77" t="n">
+        <v>7.64616665179433</v>
+      </c>
+      <c r="E77" t="n">
+        <v>-0.7333586812019348</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.03890135511755943</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.7343897267284064</v>
+      </c>
+      <c r="H77" t="n">
+        <v>23301.38151658768</v>
+      </c>
+      <c r="I77" t="n">
+        <v>10631656.99381462</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>637.5428945849579</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1381.331464793708</v>
+      </c>
+      <c r="D78" t="n">
+        <v>8.783730426240808</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1.104206919670105</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.2886634171009064</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1.141314807500417</v>
+      </c>
+      <c r="H78" t="n">
+        <v>22876.7345971564</v>
+      </c>
+      <c r="I78" t="n">
+        <v>2007456.640216666</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>637.3846375177544</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1381.524249043491</v>
+      </c>
+      <c r="D79" t="n">
+        <v>8.699940328959954</v>
+      </c>
+      <c r="E79" t="n">
+        <v>-0.1582570672035217</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.1927842497825623</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.2494214631584166</v>
+      </c>
+      <c r="H79" t="n">
+        <v>22784.9644549763</v>
+      </c>
+      <c r="I79" t="n">
+        <v>6956759.190605269</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>637.664344800536</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1382.068341400649</v>
+      </c>
+      <c r="D80" t="n">
+        <v>9.161903002737937</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.279707282781601</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.5440923571586609</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.611778274507631</v>
+      </c>
+      <c r="H80" t="n">
+        <v>23255.38862559242</v>
+      </c>
+      <c r="I80" t="n">
+        <v>1995555.35540913</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>638.1166214774292</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1381.70602440479</v>
+      </c>
+      <c r="D81" t="n">
+        <v>9.449586096994718</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.4522766768932343</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-0.3623169958591461</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.5795065124310369</v>
+      </c>
+      <c r="H81" t="n">
+        <v>22956.2654028436</v>
+      </c>
+      <c r="I81" t="n">
+        <v>628371.3873648902</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>637.7613737116498</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1382.462972458627</v>
+      </c>
+      <c r="D82" t="n">
+        <v>9.411585594235708</v>
+      </c>
+      <c r="E82" t="n">
+        <v>-0.3552477657794952</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.7569480538368225</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.836164655614357</v>
+      </c>
+      <c r="H82" t="n">
+        <v>22915.51895734597</v>
+      </c>
+      <c r="I82" t="n">
+        <v>5798271.432076832</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>638.0885676870984</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1382.12309679034</v>
+      </c>
+      <c r="D83" t="n">
+        <v>9.574300468347278</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.3271939754486084</v>
+      </c>
+      <c r="F83" t="n">
+        <v>-0.3398756682872772</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.4717746998977244</v>
+      </c>
+      <c r="H83" t="n">
+        <v>22819.81516587678</v>
+      </c>
+      <c r="I83" t="n">
+        <v>4662623.134052164</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>637.566066874091</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1381.918652262714</v>
+      </c>
+      <c r="D84" t="n">
+        <v>9.013323136300075</v>
+      </c>
+      <c r="E84" t="n">
+        <v>-0.5225008130073547</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-0.2044445276260376</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.5610745623084158</v>
+      </c>
+      <c r="H84" t="n">
+        <v>22720.98815165877</v>
+      </c>
+      <c r="I84" t="n">
+        <v>812047.46021558</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>638.021763158862</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1382.756647613075</v>
+      </c>
+      <c r="D85" t="n">
+        <v>9.773141026777532</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.4556962847709656</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.8379953503608704</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.9538843279876753</v>
+      </c>
+      <c r="H85" t="n">
+        <v>23132.27488151659</v>
+      </c>
+      <c r="I85" t="n">
+        <v>2853819.599833382</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>638.1620861570281</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1382.734099315654</v>
+      </c>
+      <c r="D86" t="n">
+        <v>9.88973036043769</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.1403229981660843</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-0.02254829742014408</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.1421230788115223</v>
+      </c>
+      <c r="H86" t="n">
+        <v>23126.75355450237</v>
+      </c>
+      <c r="I86" t="n">
+        <v>687181.1833664281</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>637.9620286653679</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1382.598808603536</v>
+      </c>
+      <c r="D87" t="n">
+        <v>9.650973915238936</v>
+      </c>
+      <c r="E87" t="n">
+        <v>-0.2000574916601181</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-0.1352907121181488</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.241508957918281</v>
+      </c>
+      <c r="H87" t="n">
+        <v>23166.00236966825</v>
+      </c>
+      <c r="I87" t="n">
+        <v>1317016.381729463</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>638.6041396687668</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1382.467157976877</v>
+      </c>
+      <c r="D88" t="n">
+        <v>10.18281727333355</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.6421110033988953</v>
+      </c>
+      <c r="F88" t="n">
+        <v>-0.1316506266593933</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.6554680985263486</v>
+      </c>
+      <c r="H88" t="n">
+        <v>23005.3981042654</v>
+      </c>
+      <c r="I88" t="n">
+        <v>3750142.205848468</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>638.5849464665097</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1382.438839057636</v>
+      </c>
+      <c r="D89" t="n">
+        <v>10.15407298978387</v>
+      </c>
+      <c r="E89" t="n">
+        <v>-0.01919320225715637</v>
+      </c>
+      <c r="F89" t="n">
+        <v>-0.02831891924142838</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.0342102353088466</v>
+      </c>
+      <c r="H89" t="n">
+        <v>22745.55213270142</v>
+      </c>
+      <c r="I89" t="n">
+        <v>2874138.473465546</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>638.5102469007414</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1382.357500905346</v>
+      </c>
+      <c r="D90" t="n">
+        <v>10.05364700007179</v>
+      </c>
+      <c r="E90" t="n">
+        <v>-0.07469956576824188</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-0.08133815228939056</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.110435139986401</v>
+      </c>
+      <c r="H90" t="n">
+        <v>22698.56398104265</v>
+      </c>
+      <c r="I90" t="n">
+        <v>6389402.771698828</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>638.3016076813382</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1382.246724108409</v>
+      </c>
+      <c r="D91" t="n">
+        <v>9.81843478917415</v>
+      </c>
+      <c r="E91" t="n">
+        <v>-0.2086392194032669</v>
+      </c>
+      <c r="F91" t="n">
+        <v>-0.1107767969369888</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.2362240940565196</v>
+      </c>
+      <c r="H91" t="n">
+        <v>22713.33886255924</v>
+      </c>
+      <c r="I91" t="n">
+        <v>20150876.98303241</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>638.5380489657563</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1382.253782592889</v>
+      </c>
+      <c r="D92" t="n">
+        <v>10.0397901886513</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.2364412844181061</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.007058484479784966</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.2365466194652443</v>
+      </c>
+      <c r="H92" t="n">
+        <v>23075.08056872038</v>
+      </c>
+      <c r="I92" t="n">
+        <v>2860033.061149065</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>639.0188411007565</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1382.367203913804</v>
+      </c>
+      <c r="D93" t="n">
+        <v>10.52818207033943</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.4807921350002289</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.1134213209152222</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.4939893451444394</v>
+      </c>
+      <c r="H93" t="n">
+        <v>22882.23696682464</v>
+      </c>
+      <c r="I93" t="n">
+        <v>1642196.96459593</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>639.0016723516327</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1382.709355734464</v>
+      </c>
+      <c r="D94" t="n">
+        <v>10.64369645698227</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-0.01716874912381172</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.3421518206596375</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.3425823029976608</v>
+      </c>
+      <c r="H94" t="n">
+        <v>22981.89573459716</v>
+      </c>
+      <c r="I94" t="n">
+        <v>569790.7323211898</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>638.5528839173656</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1383.01024075615</v>
+      </c>
+      <c r="D95" t="n">
+        <v>10.36167908430924</v>
+      </c>
+      <c r="E95" t="n">
+        <v>-0.4487884342670441</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.300885021686554</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.5403173650801749</v>
+      </c>
+      <c r="H95" t="n">
+        <v>23494.68246445498</v>
+      </c>
+      <c r="I95" t="n">
+        <v>573629.0763411709</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>639.6517440619808</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1382.433613203641</v>
+      </c>
+      <c r="D96" t="n">
+        <v>11.14211142811313</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1.098860144615173</v>
+      </c>
+      <c r="F96" t="n">
+        <v>-0.5766275525093079</v>
+      </c>
+      <c r="G96" t="n">
+        <v>1.240964524769566</v>
+      </c>
+      <c r="H96" t="n">
+        <v>23182.15165876777</v>
+      </c>
+      <c r="I96" t="n">
+        <v>2443848.56471887</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>639.2912363353115</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1382.725290648814</v>
+      </c>
+      <c r="D97" t="n">
+        <v>10.9161518737391</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-0.3605077266693115</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.2916774451732635</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.4637257303741913</v>
+      </c>
+      <c r="H97" t="n">
+        <v>23156.15876777251</v>
+      </c>
+      <c r="I97" t="n">
+        <v>7915028.754835822</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>639.3434732350451</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1383.015901021834</v>
+      </c>
+      <c r="D98" t="n">
+        <v>11.08020484633437</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.0522368997335434</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.2906103730201721</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.2952678150437258</v>
+      </c>
+      <c r="H98" t="n">
+        <v>23273.58293838863</v>
+      </c>
+      <c r="I98" t="n">
+        <v>1216659.859943104</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>639.6066123041254</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1382.346706919547</v>
+      </c>
+      <c r="D99" t="n">
+        <v>11.06923304357361</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.2631390690803528</v>
+      </c>
+      <c r="F99" t="n">
+        <v>-0.6691941022872925</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.7190708700904035</v>
+      </c>
+      <c r="H99" t="n">
+        <v>22938.62322274881</v>
+      </c>
+      <c r="I99" t="n">
+        <v>1415826.966596647</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>639.2806536349398</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1382.524286739703</v>
+      </c>
+      <c r="D100" t="n">
+        <v>10.82963549249579</v>
+      </c>
+      <c r="E100" t="n">
+        <v>-0.3259586691856384</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.1775798201560974</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.3711921962325506</v>
+      </c>
+      <c r="H100" t="n">
+        <v>22909.59952606635</v>
+      </c>
+      <c r="I100" t="n">
+        <v>1949535.79036524</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>639.0690185519796</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1382.735120169993</v>
+      </c>
+      <c r="D101" t="n">
+        <v>10.71573384016346</v>
+      </c>
+      <c r="E101" t="n">
+        <v>-0.2116350829601288</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.2108334302902222</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.2987308883719301</v>
+      </c>
+      <c r="H101" t="n">
+        <v>22740.82701421801</v>
+      </c>
+      <c r="I101" t="n">
+        <v>2162122.545906829</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>639.246464172278</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1382.991761498328</v>
+      </c>
+      <c r="D102" t="n">
+        <v>10.98183981060707</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.1774456202983856</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.2566413283348083</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.3120123708645761</v>
+      </c>
+      <c r="H102" t="n">
+        <v>22823.53317535545</v>
+      </c>
+      <c r="I102" t="n">
+        <v>2033966.723492789</v>
       </c>
     </row>
   </sheetData>
@@ -791,7 +6417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -851,10 +6477,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>550</v>
+        <v>845.979020979021</v>
       </c>
       <c r="C2" t="n">
-        <v>780</v>
+        <v>1082.664335664336</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -869,10 +6495,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>7297.5835</v>
+        <v>23406.27272727273</v>
       </c>
       <c r="I2" t="n">
-        <v>15468.56850528997</v>
+        <v>3460593.94231387</v>
       </c>
     </row>
     <row r="3">
@@ -880,28 +6506,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>549.9999999502722</v>
+        <v>845.9790213247647</v>
       </c>
       <c r="C3" t="n">
-        <v>779.9999999333995</v>
+        <v>1082.664335702721</v>
       </c>
       <c r="D3" t="n">
-        <v>8.311722899767231e-08</v>
+        <v>3.478680085728055e-07</v>
       </c>
       <c r="E3" t="n">
-        <v>-4.972775968781207e-08</v>
+        <v>3.457437287579523e-07</v>
       </c>
       <c r="F3" t="n">
-        <v>-6.660047802142799e-08</v>
+        <v>3.838522388832644e-08</v>
       </c>
       <c r="G3" t="n">
-        <v>8.311722899767231e-08</v>
+        <v>3.478680085728055e-07</v>
       </c>
       <c r="H3" t="n">
-        <v>7322.7875</v>
+        <v>23651.41025641026</v>
       </c>
       <c r="I3" t="n">
-        <v>79597.48634736998</v>
+        <v>1233130.359157367</v>
       </c>
     </row>
     <row r="4">
@@ -909,28 +6535,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>551.0090516308371</v>
+        <v>846.5528028150907</v>
       </c>
       <c r="C4" t="n">
-        <v>781.0131257106441</v>
+        <v>1082.67128933518</v>
       </c>
       <c r="D4" t="n">
-        <v>1.429898212902983</v>
+        <v>0.573823970344283</v>
       </c>
       <c r="E4" t="n">
-        <v>1.00905168056488</v>
+        <v>0.5737814903259277</v>
       </c>
       <c r="F4" t="n">
-        <v>1.013125777244568</v>
+        <v>0.006953632459044456</v>
       </c>
       <c r="G4" t="n">
-        <v>1.429898295183339</v>
+        <v>0.5738236241607854</v>
       </c>
       <c r="H4" t="n">
-        <v>7205.6371</v>
+        <v>23347.44988344988</v>
       </c>
       <c r="I4" t="n">
-        <v>834173880.8386923</v>
+        <v>290560.9500945209</v>
       </c>
     </row>
     <row r="5">
@@ -938,28 +6564,2841 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>550.4434360364501</v>
+        <v>845.8239472051969</v>
       </c>
       <c r="C5" t="n">
-        <v>779.4304588367122</v>
+        <v>1082.646019523207</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7218120635607022</v>
+        <v>0.1561517094171818</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.5656155943870544</v>
+        <v>-0.7288556098937988</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.582666873931885</v>
+        <v>-0.02526981197297573</v>
       </c>
       <c r="G5" t="n">
-        <v>1.680700875960724</v>
+        <v>0.7292935372473905</v>
       </c>
       <c r="H5" t="n">
-        <v>7056.0604</v>
+        <v>23597.16083916084</v>
       </c>
       <c r="I5" t="n">
-        <v>79597.48634736998</v>
+        <v>1003561.535582782</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>846.1954508265367</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1082.571164255205</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.235632744700241</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.371503621339798</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.0748552680015564</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.378969988015105</v>
+      </c>
+      <c r="H6" t="n">
+        <v>23334.63403263403</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1882144.841893032</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>845.9804322859159</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1082.564993535809</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.09935215290744503</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.2150185406208038</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.006170719396322966</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.2151070677327187</v>
+      </c>
+      <c r="H7" t="n">
+        <v>23800.668997669</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1859420.855794746</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>846.9157608887067</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1082.60606197425</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9385507345658978</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.9353286027908325</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.04106843844056129</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.9362297858082689</v>
+      </c>
+      <c r="H8" t="n">
+        <v>23447.87645687646</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1909780.592082663</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>846.7187092145791</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1082.69152518519</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7401877841921952</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.1970516741275787</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.08546321094036102</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.2147866911629259</v>
+      </c>
+      <c r="H9" t="n">
+        <v>23318.24941724942</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1266511.071673094</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>846.2789187868943</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1082.771890574775</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3186012459594967</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.4397904276847839</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.080365389585495</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.4470729427357392</v>
+      </c>
+      <c r="H10" t="n">
+        <v>23311.64801864802</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2105818.561167896</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>846.1700869863739</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1082.980759689294</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3696354727787873</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.1088318005204201</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.2088691145181656</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.2355221174414817</v>
+      </c>
+      <c r="H11" t="n">
+        <v>23262.4965034965</v>
+      </c>
+      <c r="I11" t="n">
+        <v>7631508.209934906</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>845.8782909577599</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1083.080652678095</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.428329771471095</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.2917960286140442</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0998929888010025</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.3084210296437733</v>
+      </c>
+      <c r="H12" t="n">
+        <v>23489.74125874126</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4541530.773945201</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>846.7454863851776</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1082.146082425199</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.9252327483990969</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8671954274177551</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.9345702528953552</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.274931161644091</v>
+      </c>
+      <c r="H13" t="n">
+        <v>23273.50582750583</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3689376.790182574</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>847.5781621998062</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1082.305473977409</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.638912552382878</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8326758146286011</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.1593915522098541</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.8477940075179059</v>
+      </c>
+      <c r="H14" t="n">
+        <v>22914.12354312354</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2561553.70965129</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>847.5687605207672</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1082.472214692913</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.601306428592573</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.009401679039001465</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.1667407155036926</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.1670055621092776</v>
+      </c>
+      <c r="H15" t="n">
+        <v>23325.77622377623</v>
+      </c>
+      <c r="I15" t="n">
+        <v>407274.0855993739</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>848.0065016513577</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1082.745822453581</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2.029117535659316</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.4377411305904388</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.2736077606678009</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.5162155597308592</v>
+      </c>
+      <c r="H16" t="n">
+        <v>23032.68298368298</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2076621.848386805</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>847.2044238215199</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1082.942773991905</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.256638384207597</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.8020778298377991</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.1969515383243561</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.8259048090219863</v>
+      </c>
+      <c r="H17" t="n">
+        <v>23327.17016317016</v>
+      </c>
+      <c r="I17" t="n">
+        <v>310645.026835307</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>847.4656269317379</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1083.128195503436</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.557293552604456</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.2612031102180481</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.1854215115308762</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.3203251500053916</v>
+      </c>
+      <c r="H18" t="n">
+        <v>23048.50815850816</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2432377.72510413</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>847.6189730232468</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1082.338661530696</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.671976778750949</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.1533460915088654</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.7895339727401733</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.8042878327389555</v>
+      </c>
+      <c r="H19" t="n">
+        <v>22794.95337995338</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4547610.93326101</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>847.4413770800343</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1082.5760894657</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.465016299480776</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.1775959432125092</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.2374279350042343</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.2965001574466963</v>
+      </c>
+      <c r="H20" t="n">
+        <v>22975.26340326341</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3108522.472626173</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>847.8657761877289</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1082.845187002502</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.895402971429285</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.4243991076946259</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.2690975368022919</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.5025217278138882</v>
+      </c>
+      <c r="H21" t="n">
+        <v>22927.91841491841</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2677796.010872726</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>847.8815715862324</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1083.156599575363</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.965202933821453</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.01579539850354195</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.3114125728607178</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.3118129008710473</v>
+      </c>
+      <c r="H22" t="n">
+        <v>22874.88111888112</v>
+      </c>
+      <c r="I22" t="n">
+        <v>950560.8319760779</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>848.3530258191636</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1082.42594676622</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2.385943890322058</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.4714542329311371</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.7306528091430664</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.8695531158344159</v>
+      </c>
+      <c r="H23" t="n">
+        <v>22825.98834498835</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1470587.194204499</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>847.9464966012051</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1082.70258947619</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.967847473258578</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-0.4065292179584503</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.2766427099704742</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.491728780969466</v>
+      </c>
+      <c r="H24" t="n">
+        <v>22998.41491841492</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1070172.129065763</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>848.4431544793656</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1082.930488461338</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2.478465496808973</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.4966578781604767</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.2278989851474762</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.5464494444778185</v>
+      </c>
+      <c r="H25" t="n">
+        <v>23137.73659673659</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3291897.174297442</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>848.3649538857749</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1083.26996266254</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2.461597021546208</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-0.07820059359073639</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.3394742012023926</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.3483648462746292</v>
+      </c>
+      <c r="H26" t="n">
+        <v>23033.57808857809</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2075198.307700426</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>848.4191532498112</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1082.594473236881</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2.441132167196495</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.05419936403632164</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.6754894256591797</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.6776603391370267</v>
+      </c>
+      <c r="H27" t="n">
+        <v>23231.30769230769</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2351715.851746081</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>848.3361742934098</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1082.862600529276</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2.365476844994241</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-0.08297895640134811</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.2681272923946381</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.2806737467814483</v>
+      </c>
+      <c r="H28" t="n">
+        <v>23034.86247086247</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3422935.831024231</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>848.6351903220525</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1083.232863181911</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2.716331923219428</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.2990160286426544</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.3702626526355743</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.4759254325227396</v>
+      </c>
+      <c r="H29" t="n">
+        <v>23004.41958041958</v>
+      </c>
+      <c r="I29" t="n">
+        <v>9512473.405638846</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>847.9947890182843</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1082.534829849086</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2.019923895670039</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-0.640401303768158</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.698033332824707</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.9472931772172355</v>
+      </c>
+      <c r="H30" t="n">
+        <v>22997.25174825175</v>
+      </c>
+      <c r="I30" t="n">
+        <v>6137160.063524997</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>847.9094803621879</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1082.725220048509</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.931419254924523</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-0.08530865609645844</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.1903901994228363</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.2086288447009454</v>
+      </c>
+      <c r="H31" t="n">
+        <v>23002.37062937063</v>
+      </c>
+      <c r="I31" t="n">
+        <v>6513955.871577532</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>847.4832791080585</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1082.856292018376</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1.516456316756857</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-0.4262012541294098</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.1310719698667526</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.4459006282864296</v>
+      </c>
+      <c r="H32" t="n">
+        <v>23215.52913752914</v>
+      </c>
+      <c r="I32" t="n">
+        <v>6117023.638868704</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>847.4200535183659</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1083.034425699793</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1.487797504297966</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-0.06322558969259262</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.1781336814165115</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.1890213840997238</v>
+      </c>
+      <c r="H33" t="n">
+        <v>23222.21445221445</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3273142.262553416</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>848.2742928033581</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1082.410003328405</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2.309319745010534</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.854239284992218</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-0.6244223713874817</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1.058124781825462</v>
+      </c>
+      <c r="H34" t="n">
+        <v>23050.43123543124</v>
+      </c>
+      <c r="I34" t="n">
+        <v>5107362.966793624</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>847.9350744252911</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1082.761636638723</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1.958471997318763</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-0.3392183780670166</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.3516333103179932</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.4885847858290386</v>
+      </c>
+      <c r="H35" t="n">
+        <v>23212.26573426573</v>
+      </c>
+      <c r="I35" t="n">
+        <v>3325807.789994267</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>848.552341139864</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1083.126358741604</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2.614467818530008</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.6172667145729065</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.3647221028804779</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.7169661144358135</v>
+      </c>
+      <c r="H36" t="n">
+        <v>22990.51048951049</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3317438.604317926</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>848.8538045352211</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1082.573724144779</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2.87621121311959</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.301463395357132</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-0.552634596824646</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.6295118556054282</v>
+      </c>
+      <c r="H37" t="n">
+        <v>23096.68764568765</v>
+      </c>
+      <c r="I37" t="n">
+        <v>3907582.222836647</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>849.6728475754967</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1083.063648843847</v>
+      </c>
+      <c r="D38" t="n">
+        <v>3.715347351212612</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.8190430402755737</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.4899246990680695</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.954388659080143</v>
+      </c>
+      <c r="H38" t="n">
+        <v>22916.40093240093</v>
+      </c>
+      <c r="I38" t="n">
+        <v>3316599.02655583</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>849.5290971463432</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1082.619803482376</v>
+      </c>
+      <c r="D39" t="n">
+        <v>3.550355462347313</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-0.1437504291534424</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-0.4438453614711761</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.4665435572176277</v>
+      </c>
+      <c r="H39" t="n">
+        <v>22753.51748251748</v>
+      </c>
+      <c r="I39" t="n">
+        <v>28577444.41908081</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>849.0182444518318</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1083.064235621772</v>
+      </c>
+      <c r="D40" t="n">
+        <v>3.065419921257491</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-0.5108526945114136</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.4444321393966675</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.6771191933613095</v>
+      </c>
+      <c r="H40" t="n">
+        <v>22741.39627039627</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2099125.247506282</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>849.2167030041924</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1082.679605895363</v>
+      </c>
+      <c r="D41" t="n">
+        <v>3.237718035294811</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.1984585523605347</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-0.3846297264099121</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.4328115333990107</v>
+      </c>
+      <c r="H41" t="n">
+        <v>22936.93473193473</v>
+      </c>
+      <c r="I41" t="n">
+        <v>9016859.439555831</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>849.6674048369637</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1083.469213837467</v>
+      </c>
+      <c r="D42" t="n">
+        <v>3.775182691885938</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.4507018327713013</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.7896079421043396</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.9091825142938353</v>
+      </c>
+      <c r="H42" t="n">
+        <v>23083.76456876457</v>
+      </c>
+      <c r="I42" t="n">
+        <v>6129481.978987571</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>850.6266990965119</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1083.247212702118</v>
+      </c>
+      <c r="D43" t="n">
+        <v>4.684085559100814</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.9592942595481873</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-0.2220011353492737</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.9846471350176526</v>
+      </c>
+      <c r="H43" t="n">
+        <v>22546.89976689977</v>
+      </c>
+      <c r="I43" t="n">
+        <v>15201031.21367333</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>850.3594487076512</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1082.975999915682</v>
+      </c>
+      <c r="D44" t="n">
+        <v>4.391501074953625</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-0.2672503888607025</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-0.2712127864360809</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.3807612714977981</v>
+      </c>
+      <c r="H44" t="n">
+        <v>22673.85780885781</v>
+      </c>
+      <c r="I44" t="n">
+        <v>23739215.70066115</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>851.2546961670628</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1083.781569862447</v>
+      </c>
+      <c r="D45" t="n">
+        <v>5.392676602870798</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.8952474594116211</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.8055699467658997</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1.204330084617742</v>
+      </c>
+      <c r="H45" t="n">
+        <v>22285.94172494172</v>
+      </c>
+      <c r="I45" t="n">
+        <v>29025727.81955019</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>850.682441747736</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1083.547156581364</v>
+      </c>
+      <c r="D46" t="n">
+        <v>4.785555317737211</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-0.5722544193267822</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-0.234413281083107</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.6184049698920445</v>
+      </c>
+      <c r="H46" t="n">
+        <v>22253.01631701632</v>
+      </c>
+      <c r="I46" t="n">
+        <v>44701697.51278566</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>850.7240290595105</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1083.276824095927</v>
+      </c>
+      <c r="D47" t="n">
+        <v>4.784374960508805</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.04158731177449226</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-0.2703324854373932</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.2735126271004453</v>
+      </c>
+      <c r="H47" t="n">
+        <v>22204.48018648018</v>
+      </c>
+      <c r="I47" t="n">
+        <v>31431977.76124555</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>851.3018284989407</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1083.057528832637</v>
+      </c>
+      <c r="D48" t="n">
+        <v>5.337310255335765</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.5777994394302368</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-0.2192952632904053</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.6180150521690423</v>
+      </c>
+      <c r="H48" t="n">
+        <v>22271.32400932401</v>
+      </c>
+      <c r="I48" t="n">
+        <v>105383875.9018002</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>851.3805731935313</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1082.893849769316</v>
+      </c>
+      <c r="D49" t="n">
+        <v>5.406426088504864</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.07874469459056854</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-0.1636790633201599</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.181635796845024</v>
+      </c>
+      <c r="H49" t="n">
+        <v>22075.04428904429</v>
+      </c>
+      <c r="I49" t="n">
+        <v>132273451.5659112</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>851.3729912945887</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1083.72121397563</v>
+      </c>
+      <c r="D50" t="n">
+        <v>5.496535957319929</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-0.00758189894258976</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.8273642063140869</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.8273989455403691</v>
+      </c>
+      <c r="H50" t="n">
+        <v>22110.62470862471</v>
+      </c>
+      <c r="I50" t="n">
+        <v>83788290.84634684</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>851.7690277108809</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1083.612090060197</v>
+      </c>
+      <c r="D51" t="n">
+        <v>5.867061986195182</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.3960364162921906</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-0.1091239154338837</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.410795413739227</v>
+      </c>
+      <c r="H51" t="n">
+        <v>22107.92307692308</v>
+      </c>
+      <c r="I51" t="n">
+        <v>812276534.6092206</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>852.1281326422354</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1083.346411833249</v>
+      </c>
+      <c r="D52" t="n">
+        <v>6.186824884129071</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.3591049313545227</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-0.2656782269477844</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.446700427576754</v>
+      </c>
+      <c r="H52" t="n">
+        <v>21668.22610722611</v>
+      </c>
+      <c r="I52" t="n">
+        <v>5194883229948.914</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>851.6667719790598</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1083.265201443515</v>
+      </c>
+      <c r="D53" t="n">
+        <v>5.719401290610061</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-0.4613606631755829</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-0.08121038973331451</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.4684536144875504</v>
+      </c>
+      <c r="H53" t="n">
+        <v>21772.29603729604</v>
+      </c>
+      <c r="I53" t="n">
+        <v>812276534.609226</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>852.7174160191676</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1083.067515039526</v>
+      </c>
+      <c r="D54" t="n">
+        <v>6.7504460093871</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1.050644040107727</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-0.1976864039897919</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1.069080358689796</v>
+      </c>
+      <c r="H54" t="n">
+        <v>21879.3613053613</v>
+      </c>
+      <c r="I54" t="n">
+        <v>83788290.84634919</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>852.6228055963179</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1082.90716558107</v>
+      </c>
+      <c r="D55" t="n">
+        <v>6.648220845421114</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-0.09461042284965515</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-0.1603494584560394</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.1861802377776322</v>
+      </c>
+      <c r="H55" t="n">
+        <v>22031.46853146853</v>
+      </c>
+      <c r="I55" t="n">
+        <v>132273451.5659104</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>852.5120639139673</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1083.727344149433</v>
+      </c>
+      <c r="D56" t="n">
+        <v>6.61896041907186</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-0.1107416823506355</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.8201785683631897</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.8276210510929144</v>
+      </c>
+      <c r="H56" t="n">
+        <v>21931.78088578089</v>
+      </c>
+      <c r="I56" t="n">
+        <v>105383875.9018017</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>852.7125225448867</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1083.631606125913</v>
+      </c>
+      <c r="D57" t="n">
+        <v>6.802621221511366</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.2004586309194565</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-0.09573802351951599</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.2221473201673301</v>
+      </c>
+      <c r="H57" t="n">
+        <v>21949.52680652681</v>
+      </c>
+      <c r="I57" t="n">
+        <v>31431977.7612437</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>853.1869369232913</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1083.584567585669</v>
+      </c>
+      <c r="D58" t="n">
+        <v>7.266421337130665</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.4744143784046173</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-0.04703854024410248</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.476740628335089</v>
+      </c>
+      <c r="H58" t="n">
+        <v>22137.40093240093</v>
+      </c>
+      <c r="I58" t="n">
+        <v>44701697.51278669</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>853.2596421474477</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1083.597321628302</v>
+      </c>
+      <c r="D59" t="n">
+        <v>7.340157178637362</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.0727052241563797</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.01275404263287783</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.073815413181196</v>
+      </c>
+      <c r="H59" t="n">
+        <v>22129.50116550117</v>
+      </c>
+      <c r="I59" t="n">
+        <v>29025727.81955079</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>853.0302855307123</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1083.772751687735</v>
+      </c>
+      <c r="D60" t="n">
+        <v>7.137851067293738</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-0.2293566167354584</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.1754300594329834</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.2887562352452255</v>
+      </c>
+      <c r="H60" t="n">
+        <v>22088.20046620047</v>
+      </c>
+      <c r="I60" t="n">
+        <v>23739215.70066088</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>852.437515490677</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1083.829694061249</v>
+      </c>
+      <c r="D61" t="n">
+        <v>6.562789921241416</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-0.5927700400352478</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.05694237351417542</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.5954987441337027</v>
+      </c>
+      <c r="H61" t="n">
+        <v>22087.42657342657</v>
+      </c>
+      <c r="I61" t="n">
+        <v>15201031.21367317</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>852.5181441465279</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1083.909241146117</v>
+      </c>
+      <c r="D62" t="n">
+        <v>6.656569796704251</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.0806286558508873</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.07954708486795425</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.1132639344862712</v>
+      </c>
+      <c r="H62" t="n">
+        <v>22093.13752913753</v>
+      </c>
+      <c r="I62" t="n">
+        <v>6129481.978987321</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>852.7665569642445</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1084.083161777526</v>
+      </c>
+      <c r="D63" t="n">
+        <v>6.934242012662562</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.2484128177165985</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.1739206314086914</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.3032446438694308</v>
+      </c>
+      <c r="H63" t="n">
+        <v>22222.91375291375</v>
+      </c>
+      <c r="I63" t="n">
+        <v>9016859.439555595</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>852.870657430019</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1083.096010154754</v>
+      </c>
+      <c r="D64" t="n">
+        <v>6.905142709488512</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.1041004657745361</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-0.9871516227722168</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.9926254244760692</v>
+      </c>
+      <c r="H64" t="n">
+        <v>22063.82750582751</v>
+      </c>
+      <c r="I64" t="n">
+        <v>2099125.247506234</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>852.8484817026069</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1083.129573213577</v>
+      </c>
+      <c r="D65" t="n">
+        <v>6.885196918760839</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-0.02217572741210461</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.03356305882334709</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.04022737629818063</v>
+      </c>
+      <c r="H65" t="n">
+        <v>22179.90442890443</v>
+      </c>
+      <c r="I65" t="n">
+        <v>28577444.41908139</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>852.851858691301</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1083.048848378181</v>
+      </c>
+      <c r="D66" t="n">
+        <v>6.883585420872394</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.00337698869407177</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-0.08072483539581299</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.08079543986092898</v>
+      </c>
+      <c r="H66" t="n">
+        <v>22181.59207459207</v>
+      </c>
+      <c r="I66" t="n">
+        <v>3316599.026556267</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>852.9658906021973</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1082.96206236881</v>
+      </c>
+      <c r="D67" t="n">
+        <v>6.993210158562429</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.1140319108963013</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-0.08678600937128067</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.1433006912937059</v>
+      </c>
+      <c r="H67" t="n">
+        <v>22233.47086247086</v>
+      </c>
+      <c r="I67" t="n">
+        <v>3907582.222836164</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>853.3716372111699</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1083.850011477887</v>
+      </c>
+      <c r="D68" t="n">
+        <v>7.487095691299282</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.4057466089725494</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.8879491090774536</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.9762601758773972</v>
+      </c>
+      <c r="H68" t="n">
+        <v>22119.58041958042</v>
+      </c>
+      <c r="I68" t="n">
+        <v>3317438.604317667</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>852.2178894141575</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1083.652626733005</v>
+      </c>
+      <c r="D69" t="n">
+        <v>6.316660398292287</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-1.153747797012329</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-0.1973847448825836</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1.170510451308815</v>
+      </c>
+      <c r="H69" t="n">
+        <v>22230.58741258741</v>
+      </c>
+      <c r="I69" t="n">
+        <v>3325807.789994294</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>852.2825129264852</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1083.469381685078</v>
+      </c>
+      <c r="D70" t="n">
+        <v>6.35469195376604</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.06462351232767105</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-0.1832450479269028</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.1943063198542383</v>
+      </c>
+      <c r="H70" t="n">
+        <v>22068.58508158508</v>
+      </c>
+      <c r="I70" t="n">
+        <v>5107362.966793132</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>852.2371280873081</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1083.223659376323</v>
+      </c>
+      <c r="D71" t="n">
+        <v>6.283052410539345</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-0.04538483917713165</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-0.245722308754921</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.249878443742118</v>
+      </c>
+      <c r="H71" t="n">
+        <v>22201.27738927739</v>
+      </c>
+      <c r="I71" t="n">
+        <v>3273142.262553416</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>852.2977515989801</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1083.082557524264</v>
+      </c>
+      <c r="D72" t="n">
+        <v>6.332556053579787</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.06062351167201996</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-0.1411018520593643</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.1535739001980163</v>
+      </c>
+      <c r="H72" t="n">
+        <v>22513.91142191142</v>
+      </c>
+      <c r="I72" t="n">
+        <v>6117023.638868285</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>853.0979570085069</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1083.050089101016</v>
+      </c>
+      <c r="D73" t="n">
+        <v>7.129379770065793</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.800205409526825</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-0.03246842324733734</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.800863843574026</v>
+      </c>
+      <c r="H73" t="n">
+        <v>22146.05827505828</v>
+      </c>
+      <c r="I73" t="n">
+        <v>6513955.871577621</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>852.662161194708</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1083.101460306614</v>
+      </c>
+      <c r="D74" t="n">
+        <v>6.697420480708983</v>
+      </c>
+      <c r="E74" t="n">
+        <v>-0.4357958137989044</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.05137120559811592</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.4388131630765573</v>
+      </c>
+      <c r="H74" t="n">
+        <v>22299.22144522145</v>
+      </c>
+      <c r="I74" t="n">
+        <v>6137160.063525955</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>853.4144847029706</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1083.109432170808</v>
+      </c>
+      <c r="D75" t="n">
+        <v>7.448773838038369</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.7523235082626343</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.007971864193677902</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.7523657433079475</v>
+      </c>
+      <c r="H75" t="n">
+        <v>22181.11188811189</v>
+      </c>
+      <c r="I75" t="n">
+        <v>9512473.40563882</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>852.5472023719808</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1083.038829351485</v>
+      </c>
+      <c r="D76" t="n">
+        <v>6.578848860745897</v>
+      </c>
+      <c r="E76" t="n">
+        <v>-0.8672823309898376</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-0.07060281932353973</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.8701513659953645</v>
+      </c>
+      <c r="H76" t="n">
+        <v>22392.20046620047</v>
+      </c>
+      <c r="I76" t="n">
+        <v>3422935.831024277</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>852.8930296534559</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1083.160095552623</v>
+      </c>
+      <c r="D77" t="n">
+        <v>6.931759792216924</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.3458272814750671</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.1212662011384964</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.3664723729710025</v>
+      </c>
+      <c r="H77" t="n">
+        <v>22317.57808857809</v>
+      </c>
+      <c r="I77" t="n">
+        <v>2351715.85174589</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>853.678826355364</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1083.296708549082</v>
+      </c>
+      <c r="D78" t="n">
+        <v>7.725729628903836</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.7857967019081116</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.1366129964590073</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.7975835802793174</v>
+      </c>
+      <c r="H78" t="n">
+        <v>22199.40093240093</v>
+      </c>
+      <c r="I78" t="n">
+        <v>2075198.307700156</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>853.7658873880168</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1083.483544210613</v>
+      </c>
+      <c r="D79" t="n">
+        <v>7.829839788516792</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.08706103265285492</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.1868356615304947</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.2061242048526059</v>
+      </c>
+      <c r="H79" t="n">
+        <v>22321.54545454546</v>
+      </c>
+      <c r="I79" t="n">
+        <v>3291897.174297758</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>854.3471699440738</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1083.611517767131</v>
+      </c>
+      <c r="D80" t="n">
+        <v>8.42158364187938</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.5812825560569763</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.1279735565185547</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.5952030251469993</v>
+      </c>
+      <c r="H80" t="n">
+        <v>22478.59673659674</v>
+      </c>
+      <c r="I80" t="n">
+        <v>1070172.129065456</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>853.72444755676</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1083.649699787318</v>
+      </c>
+      <c r="D81" t="n">
+        <v>7.807853439070614</v>
+      </c>
+      <c r="E81" t="n">
+        <v>-0.6227223873138428</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.03818202018737793</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.6238918482617327</v>
+      </c>
+      <c r="H81" t="n">
+        <v>22507.22610722611</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1470587.194204312</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>853.7095056706926</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1083.593131976843</v>
+      </c>
+      <c r="D82" t="n">
+        <v>7.786080924206678</v>
+      </c>
+      <c r="E82" t="n">
+        <v>-0.01494188606739044</v>
+      </c>
+      <c r="F82" t="n">
+        <v>-0.05656781047582626</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.05850792374781279</v>
+      </c>
+      <c r="H82" t="n">
+        <v>22261.57575757576</v>
+      </c>
+      <c r="I82" t="n">
+        <v>950560.8319761284</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>853.5619449848195</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1083.482948000252</v>
+      </c>
+      <c r="D83" t="n">
+        <v>7.62698253795236</v>
+      </c>
+      <c r="E83" t="n">
+        <v>-0.1475606858730316</v>
+      </c>
+      <c r="F83" t="n">
+        <v>-0.1101839765906334</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.1841593459823442</v>
+      </c>
+      <c r="H83" t="n">
+        <v>22175.50116550117</v>
+      </c>
+      <c r="I83" t="n">
+        <v>2677796.010872757</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>853.9041411811372</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1083.528532798111</v>
+      </c>
+      <c r="D84" t="n">
+        <v>7.972099278359271</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.3421961963176727</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.04558479785919189</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.3452190761967632</v>
+      </c>
+      <c r="H84" t="n">
+        <v>22165.6993006993</v>
+      </c>
+      <c r="I84" t="n">
+        <v>3108522.472626602</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>853.9078582394754</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1083.470236326277</v>
+      </c>
+      <c r="D85" t="n">
+        <v>7.969688587372041</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.003717058338224888</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-0.05829647183418274</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.05841485385587666</v>
+      </c>
+      <c r="H85" t="n">
+        <v>22055.11655011655</v>
+      </c>
+      <c r="I85" t="n">
+        <v>4547610.93326108</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>854.147140966717</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1083.489760628611</v>
+      </c>
+      <c r="D86" t="n">
+        <v>8.209720488850182</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.2392827272415161</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.01952430233359337</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.2400779497116538</v>
+      </c>
+      <c r="H86" t="n">
+        <v>22101.51981351982</v>
+      </c>
+      <c r="I86" t="n">
+        <v>2432377.725103719</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>853.8121313918268</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1083.477589842573</v>
+      </c>
+      <c r="D87" t="n">
+        <v>7.875214352487602</v>
+      </c>
+      <c r="E87" t="n">
+        <v>-0.3350095748901367</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-0.01217078603804111</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.335230582287556</v>
+      </c>
+      <c r="H87" t="n">
+        <v>22351.28904428905</v>
+      </c>
+      <c r="I87" t="n">
+        <v>310645.0268352898</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>854.6478766072428</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1083.584204849496</v>
+      </c>
+      <c r="D88" t="n">
+        <v>8.717523571563218</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.8357452154159546</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.1066150069236755</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.8425181450817518</v>
+      </c>
+      <c r="H88" t="n">
+        <v>22519.26573426573</v>
+      </c>
+      <c r="I88" t="n">
+        <v>2076621.848386918</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>854.4172021318113</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1083.688784178987</v>
+      </c>
+      <c r="D89" t="n">
+        <v>8.500140935683191</v>
+      </c>
+      <c r="E89" t="n">
+        <v>-0.2306744754314423</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.1045793294906616</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.2532736657694349</v>
+      </c>
+      <c r="H89" t="n">
+        <v>22243.21911421911</v>
+      </c>
+      <c r="I89" t="n">
+        <v>407274.0855992383</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>854.1436900664007</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1083.760011088744</v>
+      </c>
+      <c r="D90" t="n">
+        <v>8.237859305794522</v>
+      </c>
+      <c r="E90" t="n">
+        <v>-0.273512065410614</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.07122690975666046</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.2826342558832235</v>
+      </c>
+      <c r="H90" t="n">
+        <v>22392.0979020979</v>
+      </c>
+      <c r="I90" t="n">
+        <v>2561553.70965139</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>853.9765965063011</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1084.026137781039</v>
+      </c>
+      <c r="D91" t="n">
+        <v>8.112688784836173</v>
+      </c>
+      <c r="E91" t="n">
+        <v>-0.1670935600996017</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.2661266922950745</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.3142350619817535</v>
+      </c>
+      <c r="H91" t="n">
+        <v>22597.31235431235</v>
+      </c>
+      <c r="I91" t="n">
+        <v>3689376.790182182</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>854.8408300597107</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1083.30158014287</v>
+      </c>
+      <c r="D92" t="n">
+        <v>8.884691368191531</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.8642335534095764</v>
+      </c>
+      <c r="F92" t="n">
+        <v>-0.724557638168335</v>
+      </c>
+      <c r="G92" t="n">
+        <v>1.127778083608215</v>
+      </c>
+      <c r="H92" t="n">
+        <v>22381.59440559441</v>
+      </c>
+      <c r="I92" t="n">
+        <v>4541530.77394502</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>855.0414417851603</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1083.579712611332</v>
+      </c>
+      <c r="D93" t="n">
+        <v>9.108533681259487</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.2006117254495621</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.2781324684619904</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.3429325508035225</v>
+      </c>
+      <c r="H93" t="n">
+        <v>22013.82517482518</v>
+      </c>
+      <c r="I93" t="n">
+        <v>7631508.209933867</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>853.9408708680307</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1083.75498874177</v>
+      </c>
+      <c r="D94" t="n">
+        <v>8.03620419043977</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-1.100570917129517</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.175276130437851</v>
+      </c>
+      <c r="G94" t="n">
+        <v>1.114440696283374</v>
+      </c>
+      <c r="H94" t="n">
+        <v>22423.13053613053</v>
+      </c>
+      <c r="I94" t="n">
+        <v>2105818.561168342</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>854.6205806005632</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1083.954850119248</v>
+      </c>
+      <c r="D95" t="n">
+        <v>8.73738978477019</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.6797097325325012</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.1998613774776459</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.7084842205064742</v>
+      </c>
+      <c r="H95" t="n">
+        <v>22169.0303030303</v>
+      </c>
+      <c r="I95" t="n">
+        <v>1266511.071673218</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>854.472447218362</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1084.19890723814</v>
+      </c>
+      <c r="D96" t="n">
+        <v>8.630944281957612</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-0.1481333822011948</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.2440571188926697</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.2854949670389234</v>
+      </c>
+      <c r="H96" t="n">
+        <v>22115.89277389277</v>
+      </c>
+      <c r="I96" t="n">
+        <v>1909780.592082851</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>854.0441092867291</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1083.482839566365</v>
+      </c>
+      <c r="D97" t="n">
+        <v>8.106515777371047</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-0.4283379316329956</v>
+      </c>
+      <c r="F97" t="n">
+        <v>-0.7160676717758179</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.8344017582903773</v>
+      </c>
+      <c r="H97" t="n">
+        <v>21949.11421911422</v>
+      </c>
+      <c r="I97" t="n">
+        <v>1859420.855794723</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>853.8918380457794</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1083.628385212913</v>
+      </c>
+      <c r="D98" t="n">
+        <v>7.971327710243465</v>
+      </c>
+      <c r="E98" t="n">
+        <v>-0.1522712409496307</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.1455456465482712</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.2106420329599361</v>
+      </c>
+      <c r="H98" t="n">
+        <v>22238.44522144522</v>
+      </c>
+      <c r="I98" t="n">
+        <v>1882144.841893049</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>855.5173579174912</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1083.941322979226</v>
+      </c>
+      <c r="D99" t="n">
+        <v>9.623438478744287</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1.625519871711731</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.3129377663135529</v>
+      </c>
+      <c r="G99" t="n">
+        <v>1.655368508494419</v>
+      </c>
+      <c r="H99" t="n">
+        <v>21704.45920745921</v>
+      </c>
+      <c r="I99" t="n">
+        <v>1003561.53558264</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>855.4604254532492</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1084.243324872747</v>
+      </c>
+      <c r="D100" t="n">
+        <v>9.611984068036781</v>
+      </c>
+      <c r="E100" t="n">
+        <v>-0.05693246424198151</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.3020018935203552</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.3073214102117593</v>
+      </c>
+      <c r="H100" t="n">
+        <v>21753.12354312354</v>
+      </c>
+      <c r="I100" t="n">
+        <v>290560.950094488</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>855.1468631196653</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1083.557770010724</v>
+      </c>
+      <c r="D101" t="n">
+        <v>9.211273226165925</v>
+      </c>
+      <c r="E101" t="n">
+        <v>-0.3135623335838318</v>
+      </c>
+      <c r="F101" t="n">
+        <v>-0.6855548620223999</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.7538612643484808</v>
+      </c>
+      <c r="H101" t="n">
+        <v>21604.02331002331</v>
+      </c>
+      <c r="I101" t="n">
+        <v>1233130.359156966</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>855.4212522078192</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1083.98793816258</v>
+      </c>
+      <c r="D102" t="n">
+        <v>9.534550547951902</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.2743890881538391</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.4301681518554688</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.5102293705468599</v>
+      </c>
+      <c r="H102" t="n">
+        <v>21909.41025641026</v>
+      </c>
+      <c r="I102" t="n">
+        <v>3460593.94231414</v>
       </c>
     </row>
   </sheetData>
